--- a/Documentation/Altera FLEX 10k EPF10K50 PinOut.xlsx
+++ b/Documentation/Altera FLEX 10k EPF10K50 PinOut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitCheckout\GitHub\FPGA_PCI_Card\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDF7DA9-DC3C-47AC-8CD7-A5D8BEE00434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814D0201-8CF3-4854-866C-2849FDF8B7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{A4D30836-9B47-4462-83D3-930367343C18}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{A4D30836-9B47-4462-83D3-930367343C18}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="659">
   <si>
     <t>A</t>
   </si>
@@ -1119,13 +1119,910 @@
   </si>
   <si>
     <t>PLL Q4 -&gt; PLL Feedback</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>INTA#</t>
+  </si>
+  <si>
+    <t>GNT#</t>
+  </si>
+  <si>
+    <t>REQ#</t>
+  </si>
+  <si>
+    <t>CBE3#</t>
+  </si>
+  <si>
+    <t>CBE2#</t>
+  </si>
+  <si>
+    <t>FRAME#</t>
+  </si>
+  <si>
+    <t>IRDY#</t>
+  </si>
+  <si>
+    <t>TRDY#</t>
+  </si>
+  <si>
+    <t>CLK66M</t>
+  </si>
+  <si>
+    <t>CLK16M5</t>
+  </si>
+  <si>
+    <t>RST#</t>
+  </si>
+  <si>
+    <t>DEVSEL#</t>
+  </si>
+  <si>
+    <t>STOP#</t>
+  </si>
+  <si>
+    <t>P0LED#</t>
+  </si>
+  <si>
+    <t>PERR#</t>
+  </si>
+  <si>
+    <t>SERR#</t>
+  </si>
+  <si>
+    <t>CBE1#</t>
+  </si>
+  <si>
+    <t>CBE0#</t>
+  </si>
+  <si>
+    <t>MSEL2</t>
+  </si>
+  <si>
+    <t>P0TDI</t>
+  </si>
+  <si>
+    <t>P1GP0#</t>
+  </si>
+  <si>
+    <t>P1GP1#</t>
+  </si>
+  <si>
+    <t>P2GP0#</t>
+  </si>
+  <si>
+    <t>P2GP1#</t>
+  </si>
+  <si>
+    <t>P1F0#</t>
+  </si>
+  <si>
+    <t>P1F1#</t>
+  </si>
+  <si>
+    <t>P2F0#</t>
+  </si>
+  <si>
+    <t>P2F1#</t>
+  </si>
+  <si>
+    <t>P1NSTAT</t>
+  </si>
+  <si>
+    <t>P0F1#</t>
+  </si>
+  <si>
+    <t>P0CLK33M</t>
+  </si>
+  <si>
+    <t>P0F0#</t>
+  </si>
+  <si>
+    <t>P2NSTAT</t>
+  </si>
+  <si>
+    <t>P1CLR#</t>
+  </si>
+  <si>
+    <t>P2CLR#</t>
+  </si>
+  <si>
+    <t>P1NCONF</t>
+  </si>
+  <si>
+    <t>P2NCONF</t>
+  </si>
+  <si>
+    <t>PLD P0</t>
+  </si>
+  <si>
+    <t>PLD P1</t>
+  </si>
+  <si>
+    <t>PLD P2</t>
+  </si>
+  <si>
+    <t>M1DQ21</t>
+  </si>
+  <si>
+    <t>M1DA20</t>
+  </si>
+  <si>
+    <t>M1A19</t>
+  </si>
+  <si>
+    <t>M1A18</t>
+  </si>
+  <si>
+    <t>M1A17</t>
+  </si>
+  <si>
+    <t>M1A16</t>
+  </si>
+  <si>
+    <t>M1DQ19</t>
+  </si>
+  <si>
+    <t>M1DQ18</t>
+  </si>
+  <si>
+    <t>M1DQ17</t>
+  </si>
+  <si>
+    <t>M1DQ16</t>
+  </si>
+  <si>
+    <t>M1DQ15</t>
+  </si>
+  <si>
+    <t>M1DQ14</t>
+  </si>
+  <si>
+    <t>M1A15</t>
+  </si>
+  <si>
+    <t>M1A14</t>
+  </si>
+  <si>
+    <t>M1A13</t>
+  </si>
+  <si>
+    <t>M1A12</t>
+  </si>
+  <si>
+    <t>M1DQ13</t>
+  </si>
+  <si>
+    <t>M1DQ12</t>
+  </si>
+  <si>
+    <t>M1DQ11</t>
+  </si>
+  <si>
+    <t>M1DQ10</t>
+  </si>
+  <si>
+    <t>M1A11</t>
+  </si>
+  <si>
+    <t>M1A10</t>
+  </si>
+  <si>
+    <t>M1A9</t>
+  </si>
+  <si>
+    <t>M1A8</t>
+  </si>
+  <si>
+    <t>M1DQ9</t>
+  </si>
+  <si>
+    <t>M1DQ8</t>
+  </si>
+  <si>
+    <t>M1DQ7</t>
+  </si>
+  <si>
+    <t>M1DQ6</t>
+  </si>
+  <si>
+    <t>M1A7</t>
+  </si>
+  <si>
+    <t>M1A6</t>
+  </si>
+  <si>
+    <t>M1A5</t>
+  </si>
+  <si>
+    <t>M1A4</t>
+  </si>
+  <si>
+    <t>M1DQ5</t>
+  </si>
+  <si>
+    <t>M1DQ4</t>
+  </si>
+  <si>
+    <t>M1DQ3</t>
+  </si>
+  <si>
+    <t>M1A3</t>
+  </si>
+  <si>
+    <t>M1A2</t>
+  </si>
+  <si>
+    <t>M1A1</t>
+  </si>
+  <si>
+    <t>M1A0</t>
+  </si>
+  <si>
+    <t>M1DQ1</t>
+  </si>
+  <si>
+    <t>M1DQ0</t>
+  </si>
+  <si>
+    <t>M2A0</t>
+  </si>
+  <si>
+    <t>M2A1</t>
+  </si>
+  <si>
+    <t>M2DQ0</t>
+  </si>
+  <si>
+    <t>M2DQ1</t>
+  </si>
+  <si>
+    <t>M2DQ2</t>
+  </si>
+  <si>
+    <t>M2DQ3</t>
+  </si>
+  <si>
+    <t>M2A2</t>
+  </si>
+  <si>
+    <t>M2A3</t>
+  </si>
+  <si>
+    <t>M2A4</t>
+  </si>
+  <si>
+    <t>M2A5</t>
+  </si>
+  <si>
+    <t>M2DQ4</t>
+  </si>
+  <si>
+    <t>M2DQ5</t>
+  </si>
+  <si>
+    <t>M2DQ6</t>
+  </si>
+  <si>
+    <t>M2DQ7</t>
+  </si>
+  <si>
+    <t>M2A6</t>
+  </si>
+  <si>
+    <t>M2A7</t>
+  </si>
+  <si>
+    <t>M2A8</t>
+  </si>
+  <si>
+    <t>M2A9</t>
+  </si>
+  <si>
+    <t>M2DQ8</t>
+  </si>
+  <si>
+    <t>M2DQ9</t>
+  </si>
+  <si>
+    <t>M2DQ10</t>
+  </si>
+  <si>
+    <t>M2DQ11</t>
+  </si>
+  <si>
+    <t>M2A10</t>
+  </si>
+  <si>
+    <t>M2A11</t>
+  </si>
+  <si>
+    <t>M2A12</t>
+  </si>
+  <si>
+    <t>M2A13</t>
+  </si>
+  <si>
+    <t>M2DQ12</t>
+  </si>
+  <si>
+    <t>M2DQ13</t>
+  </si>
+  <si>
+    <t>M2DQ14</t>
+  </si>
+  <si>
+    <t>M2DQ15</t>
+  </si>
+  <si>
+    <t>M2A14</t>
+  </si>
+  <si>
+    <t>M2A15</t>
+  </si>
+  <si>
+    <t>M2A16</t>
+  </si>
+  <si>
+    <t>M2A17</t>
+  </si>
+  <si>
+    <t>M2DQ16</t>
+  </si>
+  <si>
+    <t>M2DQ17</t>
+  </si>
+  <si>
+    <t>M2DQ18</t>
+  </si>
+  <si>
+    <t>M2DQ19</t>
+  </si>
+  <si>
+    <t>M2DQ20</t>
+  </si>
+  <si>
+    <t>M2A18</t>
+  </si>
+  <si>
+    <t>M2A19</t>
+  </si>
+  <si>
+    <t>M2DQ21</t>
+  </si>
+  <si>
+    <t>M2DQ22</t>
+  </si>
+  <si>
+    <t>M2DQ23</t>
+  </si>
+  <si>
+    <t>M2DQ24</t>
+  </si>
+  <si>
+    <t>M2DQ25</t>
+  </si>
+  <si>
+    <t>M2DQ26</t>
+  </si>
+  <si>
+    <t>M2OE#</t>
+  </si>
+  <si>
+    <t>M2E1#</t>
+  </si>
+  <si>
+    <t>M2E2#</t>
+  </si>
+  <si>
+    <t>M2E3#</t>
+  </si>
+  <si>
+    <t>M2E4#</t>
+  </si>
+  <si>
+    <t>M2W#</t>
+  </si>
+  <si>
+    <t>M2DQ27</t>
+  </si>
+  <si>
+    <t>M2DQ28</t>
+  </si>
+  <si>
+    <t>M2EQ29</t>
+  </si>
+  <si>
+    <t>M2DQ30</t>
+  </si>
+  <si>
+    <t>M2DQ31</t>
+  </si>
+  <si>
+    <t>M1EQ31</t>
+  </si>
+  <si>
+    <t>M1EQ30</t>
+  </si>
+  <si>
+    <t>M1DQ29</t>
+  </si>
+  <si>
+    <t>M1DQ28</t>
+  </si>
+  <si>
+    <t>M1OE#</t>
+  </si>
+  <si>
+    <t>M1DQ27</t>
+  </si>
+  <si>
+    <t>M1DQ26</t>
+  </si>
+  <si>
+    <t>M1DQ25</t>
+  </si>
+  <si>
+    <t>M1DQ24</t>
+  </si>
+  <si>
+    <t>M1W#</t>
+  </si>
+  <si>
+    <t>M1E4#</t>
+  </si>
+  <si>
+    <t>M1E3#</t>
+  </si>
+  <si>
+    <t>M1E2#</t>
+  </si>
+  <si>
+    <t>M1E1#</t>
+  </si>
+  <si>
+    <t>P1CDONE</t>
+  </si>
+  <si>
+    <t>P2CDONE</t>
+  </si>
+  <si>
+    <t>M1DQ23</t>
+  </si>
+  <si>
+    <t>M1DQ22</t>
+  </si>
+  <si>
+    <t>C1A0</t>
+  </si>
+  <si>
+    <t>C1A1</t>
+  </si>
+  <si>
+    <t>C1A2</t>
+  </si>
+  <si>
+    <t>C1A3</t>
+  </si>
+  <si>
+    <t>C1H0#</t>
+  </si>
+  <si>
+    <t>C1DQ0</t>
+  </si>
+  <si>
+    <t>C1A4</t>
+  </si>
+  <si>
+    <t>C1A5</t>
+  </si>
+  <si>
+    <t>C1A6</t>
+  </si>
+  <si>
+    <t>C1A7</t>
+  </si>
+  <si>
+    <t>C1A8</t>
+  </si>
+  <si>
+    <t>C1A9</t>
+  </si>
+  <si>
+    <t>M1DQ20</t>
+  </si>
+  <si>
+    <t>C1A10</t>
+  </si>
+  <si>
+    <t>C1A11</t>
+  </si>
+  <si>
+    <t>C1DQ1</t>
+  </si>
+  <si>
+    <t>C1DQ2</t>
+  </si>
+  <si>
+    <t>C1A12</t>
+  </si>
+  <si>
+    <t>C1A13</t>
+  </si>
+  <si>
+    <t>C1A14</t>
+  </si>
+  <si>
+    <t>C1A15</t>
+  </si>
+  <si>
+    <t>C1DQ3</t>
+  </si>
+  <si>
+    <t>C1H1#</t>
+  </si>
+  <si>
+    <t>C1DQ4</t>
+  </si>
+  <si>
+    <t>C1DQ5</t>
+  </si>
+  <si>
+    <t>C1A16</t>
+  </si>
+  <si>
+    <t>C1A17</t>
+  </si>
+  <si>
+    <t>C1A18</t>
+  </si>
+  <si>
+    <t>C1A19</t>
+  </si>
+  <si>
+    <t>C1DQ6</t>
+  </si>
+  <si>
+    <t>C1H2#</t>
+  </si>
+  <si>
+    <t>nTRST</t>
+  </si>
+  <si>
+    <t>M1DQ2</t>
+  </si>
+  <si>
+    <t>M1EQ6</t>
+  </si>
+  <si>
+    <t>P1LED#</t>
+  </si>
+  <si>
+    <t>P1F3#</t>
+  </si>
+  <si>
+    <t>C1DQ7</t>
+  </si>
+  <si>
+    <t>C1DQ8</t>
+  </si>
+  <si>
+    <t>C1DQ9</t>
+  </si>
+  <si>
+    <t>C1DQ10</t>
+  </si>
+  <si>
+    <t>C1DQ11</t>
+  </si>
+  <si>
+    <t>C1DQ12</t>
+  </si>
+  <si>
+    <t>C1DQ13</t>
+  </si>
+  <si>
+    <t>C1DQ14</t>
+  </si>
+  <si>
+    <t>C1DQ15</t>
+  </si>
+  <si>
+    <t>C1DQ16</t>
+  </si>
+  <si>
+    <t>C1DQ17</t>
+  </si>
+  <si>
+    <t>C1DQ18</t>
+  </si>
+  <si>
+    <t>C1DQ19</t>
+  </si>
+  <si>
+    <t>C1DQ20</t>
+  </si>
+  <si>
+    <t>C1DQ21</t>
+  </si>
+  <si>
+    <t>C1DQ22</t>
+  </si>
+  <si>
+    <t>C1DQ23</t>
+  </si>
+  <si>
+    <t>C1DQ27</t>
+  </si>
+  <si>
+    <t>C1DQ26</t>
+  </si>
+  <si>
+    <t>C1DQ24</t>
+  </si>
+  <si>
+    <t>C1DQ25</t>
+  </si>
+  <si>
+    <t>M1DQ30</t>
+  </si>
+  <si>
+    <t>M1DQ31</t>
+  </si>
+  <si>
+    <t>C1DQ28</t>
+  </si>
+  <si>
+    <t>M2DQ29</t>
+  </si>
+  <si>
+    <t>C1DQ29</t>
+  </si>
+  <si>
+    <t>C1DQ30</t>
+  </si>
+  <si>
+    <t>C1DQ31</t>
+  </si>
+  <si>
+    <t>P0TDO</t>
+  </si>
+  <si>
+    <t>C1E1#</t>
+  </si>
+  <si>
+    <t>C1E2#</t>
+  </si>
+  <si>
+    <t>P1CLK33M</t>
+  </si>
+  <si>
+    <t>C2A10</t>
+  </si>
+  <si>
+    <t>C1OE#</t>
+  </si>
+  <si>
+    <t>C1W#</t>
+  </si>
+  <si>
+    <t>C1E3#</t>
+  </si>
+  <si>
+    <t>C1E4#</t>
+  </si>
+  <si>
+    <t>CONFDONE</t>
+  </si>
+  <si>
+    <t>nCE0</t>
+  </si>
+  <si>
+    <t>P2TDO</t>
+  </si>
+  <si>
+    <t>P1TDO</t>
+  </si>
+  <si>
+    <t>C2A0</t>
+  </si>
+  <si>
+    <t>C2A1</t>
+  </si>
+  <si>
+    <t>C2A2</t>
+  </si>
+  <si>
+    <t>C2A3</t>
+  </si>
+  <si>
+    <t>C2H0#</t>
+  </si>
+  <si>
+    <t>C2DQ0</t>
+  </si>
+  <si>
+    <t>C2A4</t>
+  </si>
+  <si>
+    <t>C2A5</t>
+  </si>
+  <si>
+    <t>C2A6</t>
+  </si>
+  <si>
+    <t>C2A7</t>
+  </si>
+  <si>
+    <t>C2A8</t>
+  </si>
+  <si>
+    <t>C2A9</t>
+  </si>
+  <si>
+    <t>C2A11</t>
+  </si>
+  <si>
+    <t>C2DQ1</t>
+  </si>
+  <si>
+    <t>C2DQ2</t>
+  </si>
+  <si>
+    <t>C2A12</t>
+  </si>
+  <si>
+    <t>C2A13</t>
+  </si>
+  <si>
+    <t>C2A14</t>
+  </si>
+  <si>
+    <t>C2A15</t>
+  </si>
+  <si>
+    <t>C2DQ3</t>
+  </si>
+  <si>
+    <t>C2H1#</t>
+  </si>
+  <si>
+    <t>C2DQ4</t>
+  </si>
+  <si>
+    <t>C2DQ5</t>
+  </si>
+  <si>
+    <t>C2A16</t>
+  </si>
+  <si>
+    <t>C2A17</t>
+  </si>
+  <si>
+    <t>C2A18</t>
+  </si>
+  <si>
+    <t>C2A19</t>
+  </si>
+  <si>
+    <t>C2DQ6</t>
+  </si>
+  <si>
+    <t>C2H2#</t>
+  </si>
+  <si>
+    <t>TNS</t>
+  </si>
+  <si>
+    <t>P2LED#</t>
+  </si>
+  <si>
+    <t>P2F3#</t>
+  </si>
+  <si>
+    <t>C2DQ7</t>
+  </si>
+  <si>
+    <t>C2DQ8</t>
+  </si>
+  <si>
+    <t>C2DQ9</t>
+  </si>
+  <si>
+    <t>C2DQ10</t>
+  </si>
+  <si>
+    <t>C2DQ11</t>
+  </si>
+  <si>
+    <t>C2DQ13</t>
+  </si>
+  <si>
+    <t>C2DQ12</t>
+  </si>
+  <si>
+    <t>C2DQ14</t>
+  </si>
+  <si>
+    <t>C2DQ18</t>
+  </si>
+  <si>
+    <t>C2DQ19</t>
+  </si>
+  <si>
+    <t>C2DQ20</t>
+  </si>
+  <si>
+    <t>C2DQ24</t>
+  </si>
+  <si>
+    <t>C2DQ25</t>
+  </si>
+  <si>
+    <t>C2DQ29</t>
+  </si>
+  <si>
+    <t>C2DQ30</t>
+  </si>
+  <si>
+    <t>C2DQ15</t>
+  </si>
+  <si>
+    <t>C2DQ16</t>
+  </si>
+  <si>
+    <t>C2CQ17</t>
+  </si>
+  <si>
+    <t>C2DQ21</t>
+  </si>
+  <si>
+    <t>C2DQ22</t>
+  </si>
+  <si>
+    <t>C2DQ23</t>
+  </si>
+  <si>
+    <t>C2DQ26</t>
+  </si>
+  <si>
+    <t>C2DQ27</t>
+  </si>
+  <si>
+    <t>C2DQ28</t>
+  </si>
+  <si>
+    <t>C2DQ31</t>
+  </si>
+  <si>
+    <t>C2E1#</t>
+  </si>
+  <si>
+    <t>C2E2#</t>
+  </si>
+  <si>
+    <t>P2CLK33M</t>
+  </si>
+  <si>
+    <t>C2OE#</t>
+  </si>
+  <si>
+    <t>C2W#</t>
+  </si>
+  <si>
+    <t>C2E3#</t>
+  </si>
+  <si>
+    <t>C2E4#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1172,8 +2069,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1237,6 +2142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,7 +2376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -1626,11 +2537,50 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1781,16 +2731,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8735989-B14F-46BE-A07C-9DAD0EE56B6B}" name="Tabelle1" displayName="Tabelle1" ref="A1:H61" totalsRowShown="0">
-  <autoFilter ref="A1:H61" xr:uid="{C8735989-B14F-46BE-A07C-9DAD0EE56B6B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8735989-B14F-46BE-A07C-9DAD0EE56B6B}" name="Tabelle1" displayName="Tabelle1" ref="A3:H63" totalsRowShown="0">
+  <autoFilter ref="A3:H63" xr:uid="{C8735989-B14F-46BE-A07C-9DAD0EE56B6B}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F48217A0-4510-41D2-87A7-329D2D8CCF45}" name="A"/>
+    <tableColumn id="1" xr3:uid="{F48217A0-4510-41D2-87A7-329D2D8CCF45}" name="A" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{F16BE79E-FD7C-422D-B6F0-91C8B1ECB42C}" name="A_Fcn"/>
-    <tableColumn id="3" xr3:uid="{1B2FB625-36A2-417D-8E7D-47B5FE3DF814}" name="B"/>
+    <tableColumn id="3" xr3:uid="{1B2FB625-36A2-417D-8E7D-47B5FE3DF814}" name="B" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{598B5083-ABE6-4F14-973E-D191026E9B5A}" name="B_Fcn"/>
-    <tableColumn id="5" xr3:uid="{7683CDB4-DC06-4272-8015-6DFB2377F0EF}" name="C"/>
+    <tableColumn id="5" xr3:uid="{7683CDB4-DC06-4272-8015-6DFB2377F0EF}" name="C" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{70CE42A0-2394-4529-8E39-8A33EA67ED6D}" name="C_Fcn"/>
-    <tableColumn id="7" xr3:uid="{166BBDDF-8468-4CE7-B069-4D46878B98EA}" name="D"/>
+    <tableColumn id="7" xr3:uid="{166BBDDF-8468-4CE7-B069-4D46878B98EA}" name="D" dataDxfId="8"/>
     <tableColumn id="8" xr3:uid="{F9905F63-7D84-4663-A70B-EFF5AF828B91}" name="D_Fcn"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1798,15 +2748,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3F85F4E3-4B16-4529-BE58-620EB1C36F9E}" name="Tabelle14" displayName="Tabelle14" ref="J3:Q63" totalsRowShown="0">
+  <autoFilter ref="J3:Q63" xr:uid="{3F85F4E3-4B16-4529-BE58-620EB1C36F9E}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{5CC89731-C681-41C3-B1CC-CAB3109A1954}" name="A" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F385011F-B1CD-4AE5-A2C5-069ED084A267}" name="A_Fcn"/>
+    <tableColumn id="3" xr3:uid="{56148C96-C661-4A26-8F99-5C984390B67E}" name="B" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{8F700690-14D2-46DF-B16C-28813BDC74AA}" name="B_Fcn"/>
+    <tableColumn id="5" xr3:uid="{282DB737-A180-45C4-AD7B-8256A96B91F6}" name="C" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{C50F3A97-6913-40E2-99FB-C18E286A6AF5}" name="C_Fcn"/>
+    <tableColumn id="7" xr3:uid="{8842BFAB-749A-4D8E-B85E-5D51E9B32CC6}" name="D" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{E8D8684D-E193-4DE3-AC1F-9B1D5CDAE4BB}" name="D_Fcn"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4DC8135D-4242-49E1-B42F-5FC0D97FE570}" name="Tabelle15" displayName="Tabelle15" ref="S3:Z63" totalsRowShown="0">
+  <autoFilter ref="S3:Z63" xr:uid="{4DC8135D-4242-49E1-B42F-5FC0D97FE570}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7312249F-1AB7-410C-BDDA-2AC6679E5E9E}" name="A" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B529B747-EA3E-4D8F-9986-461F7CF8E89C}" name="A_Fcn"/>
+    <tableColumn id="3" xr3:uid="{2525952A-8741-42A0-A7BB-E292C536B79B}" name="B" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{EB2286A7-EAEA-433B-9C89-4C4763D03841}" name="B_Fcn"/>
+    <tableColumn id="5" xr3:uid="{3674B955-860D-42BB-99B4-D4F1064C62B5}" name="C" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{09E46BA6-9E6A-451C-9B7C-4067F74FEAF0}" name="C_Fcn"/>
+    <tableColumn id="7" xr3:uid="{A931566F-BCFD-4028-A19C-BE682263A9A6}" name="D" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{B42DE460-AAF9-4E68-BE4D-9413AFF15E6B}" name="D_Fcn"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4606E433-7835-4976-B952-B5BDF8C6C8E8}" name="Tabelle13" displayName="Tabelle13" ref="A6:F68" totalsRowShown="0">
   <autoFilter ref="A6:F68" xr:uid="{4606E433-7835-4976-B952-B5BDF8C6C8E8}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CC0B722C-1888-495B-9865-BC3B77B314B2}" name="DescriptionB" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{83E0B734-EAE9-4700-93E5-EE3D3BA171BD}" name="+5VB" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{FDC7CAC7-5900-41A4-8A47-F34B9016BDA3}" name="PinB" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{EB1071F8-9374-4733-839C-B81285525DFA}" name="PinA" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{1F8331FE-B333-4B57-B9FB-4B6452CDBB77}" name="+5VA" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{D6749C21-0D53-4521-9E0E-E1ECE8BA7315}" name="DescriptionA" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CC0B722C-1888-495B-9865-BC3B77B314B2}" name="DescriptionB" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{83E0B734-EAE9-4700-93E5-EE3D3BA171BD}" name="+5VB" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{FDC7CAC7-5900-41A4-8A47-F34B9016BDA3}" name="PinB" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{EB1071F8-9374-4733-839C-B81285525DFA}" name="PinA" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{1F8331FE-B333-4B57-B9FB-4B6452CDBB77}" name="+5VA" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{D6749C21-0D53-4521-9E0E-E1ECE8BA7315}" name="DescriptionA" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2129,1107 +3113,4573 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C7CE0E-C57D-4B3B-962F-CEF8E15A3903}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="J1" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="S1" s="58" t="s">
+        <v>400</v>
+      </c>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C2">
+      <c r="C4" s="10">
         <v>61</v>
       </c>
-      <c r="E2">
+      <c r="D4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E4" s="10">
         <v>121</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="G2">
+      <c r="G4" s="10">
         <v>181</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H4" t="s">
+        <v>483</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="10">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>441</v>
+      </c>
+      <c r="N4" s="10">
+        <v>121</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="10">
+        <v>181</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>471</v>
+      </c>
+      <c r="S4" s="10">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="10">
+        <v>61</v>
+      </c>
+      <c r="V4" t="s">
+        <v>441</v>
+      </c>
+      <c r="W4" s="10">
+        <v>121</v>
+      </c>
+      <c r="X4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>181</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="10">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E5" s="10">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G5" s="10">
+        <v>182</v>
+      </c>
+      <c r="H5" t="s">
+        <v>484</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="10">
+        <v>62</v>
+      </c>
+      <c r="M5" t="s">
+        <v>392</v>
+      </c>
+      <c r="N5" s="10">
+        <v>122</v>
+      </c>
+      <c r="O5" t="s">
+        <v>379</v>
+      </c>
+      <c r="P5" s="10">
+        <v>182</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>470</v>
+      </c>
+      <c r="S5" s="10">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>591</v>
+      </c>
+      <c r="U5" s="10">
+        <v>62</v>
+      </c>
+      <c r="V5" t="s">
+        <v>392</v>
+      </c>
+      <c r="W5" s="10">
+        <v>122</v>
+      </c>
+      <c r="X5" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>182</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C6" s="10">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="10">
+        <v>123</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="10">
+        <v>183</v>
+      </c>
+      <c r="H6" t="s">
+        <v>381</v>
+      </c>
+      <c r="J6" s="10">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>592</v>
+      </c>
+      <c r="L6" s="10">
+        <v>63</v>
+      </c>
+      <c r="M6" t="s">
+        <v>440</v>
+      </c>
+      <c r="N6" s="10">
+        <v>123</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="10">
+        <v>183</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>469</v>
+      </c>
+      <c r="S6" s="10">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s">
+        <v>592</v>
+      </c>
+      <c r="U6" s="10">
+        <v>63</v>
+      </c>
+      <c r="V6" t="s">
+        <v>440</v>
+      </c>
+      <c r="W6" s="10">
+        <v>123</v>
+      </c>
+      <c r="X6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>183</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C7" s="10">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="10">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="10">
+        <v>184</v>
+      </c>
+      <c r="H7" t="s">
+        <v>382</v>
+      </c>
+      <c r="J7" s="10">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>594</v>
+      </c>
+      <c r="L7" s="10">
+        <v>64</v>
+      </c>
+      <c r="M7" t="s">
+        <v>390</v>
+      </c>
+      <c r="N7" s="10">
+        <v>124</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="10">
+        <v>184</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>490</v>
+      </c>
+      <c r="S7" s="10">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>593</v>
+      </c>
+      <c r="U7" s="10">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>390</v>
+      </c>
+      <c r="W7" s="10">
+        <v>124</v>
+      </c>
+      <c r="X7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>184</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" s="10">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="10">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="10">
+        <v>185</v>
+      </c>
+      <c r="H8" t="s">
+        <v>383</v>
+      </c>
+      <c r="J8" s="10">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>360</v>
+      </c>
+      <c r="L8" s="10">
+        <v>65</v>
+      </c>
+      <c r="M8" t="s">
+        <v>550</v>
+      </c>
+      <c r="N8" s="10">
+        <v>125</v>
+      </c>
+      <c r="O8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="10">
+        <v>185</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>468</v>
+      </c>
+      <c r="S8" s="10">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s">
+        <v>360</v>
+      </c>
+      <c r="U8" s="10">
+        <v>65</v>
+      </c>
+      <c r="V8" t="s">
+        <v>550</v>
+      </c>
+      <c r="W8" s="10">
+        <v>125</v>
+      </c>
+      <c r="X8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>185</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="10">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="10">
+        <v>126</v>
+      </c>
+      <c r="F9" t="s">
+        <v>442</v>
+      </c>
+      <c r="G9" s="10">
+        <v>186</v>
+      </c>
+      <c r="H9" t="s">
+        <v>384</v>
+      </c>
+      <c r="J9" s="10">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>485</v>
+      </c>
+      <c r="L9" s="10">
+        <v>66</v>
+      </c>
+      <c r="M9" t="s">
+        <v>435</v>
+      </c>
+      <c r="N9" s="10">
+        <v>126</v>
+      </c>
+      <c r="O9" t="s">
+        <v>554</v>
+      </c>
+      <c r="P9" s="10">
+        <v>186</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>482</v>
+      </c>
+      <c r="S9" s="10">
+        <v>6</v>
+      </c>
+      <c r="T9" t="s">
+        <v>485</v>
+      </c>
+      <c r="U9" s="10">
+        <v>66</v>
+      </c>
+      <c r="V9" t="s">
+        <v>435</v>
+      </c>
+      <c r="W9" s="10">
+        <v>126</v>
+      </c>
+      <c r="X9" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>186</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C10" s="10">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="10">
+        <v>127</v>
+      </c>
+      <c r="F10" t="s">
+        <v>443</v>
+      </c>
+      <c r="G10" s="10">
+        <v>187</v>
+      </c>
+      <c r="H10" t="s">
+        <v>485</v>
+      </c>
+      <c r="J10" s="10">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>518</v>
+      </c>
+      <c r="L10" s="10">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
+        <v>439</v>
+      </c>
+      <c r="N10" s="10">
+        <v>127</v>
+      </c>
+      <c r="O10" t="s">
+        <v>555</v>
+      </c>
+      <c r="P10" s="10">
+        <v>187</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>491</v>
+      </c>
+      <c r="S10" s="10">
+        <v>7</v>
+      </c>
+      <c r="T10" t="s">
+        <v>595</v>
+      </c>
+      <c r="U10" s="10">
+        <v>67</v>
+      </c>
+      <c r="V10" t="s">
+        <v>439</v>
+      </c>
+      <c r="W10" s="10">
+        <v>127</v>
+      </c>
+      <c r="X10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>187</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" s="10">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="10">
+        <v>128</v>
+      </c>
+      <c r="F11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G11" s="10">
+        <v>188</v>
+      </c>
+      <c r="H11" t="s">
+        <v>486</v>
+      </c>
+      <c r="J11" s="10">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>519</v>
+      </c>
+      <c r="L11" s="10">
+        <v>68</v>
+      </c>
+      <c r="M11" t="s">
+        <v>438</v>
+      </c>
+      <c r="N11" s="10">
+        <v>128</v>
+      </c>
+      <c r="O11" t="s">
+        <v>556</v>
+      </c>
+      <c r="P11" s="10">
+        <v>188</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>481</v>
+      </c>
+      <c r="S11" s="10">
+        <v>8</v>
+      </c>
+      <c r="T11" t="s">
+        <v>596</v>
+      </c>
+      <c r="U11" s="10">
+        <v>68</v>
+      </c>
+      <c r="V11" t="s">
+        <v>438</v>
+      </c>
+      <c r="W11" s="10">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>188</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C12" s="10">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10">
+        <v>129</v>
+      </c>
+      <c r="F12" t="s">
+        <v>445</v>
+      </c>
+      <c r="G12" s="10">
+        <v>189</v>
+      </c>
+      <c r="H12" t="s">
+        <v>360</v>
+      </c>
+      <c r="J12" s="10">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>484</v>
+      </c>
+      <c r="L12" s="10">
+        <v>69</v>
+      </c>
+      <c r="M12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="10">
+        <v>129</v>
+      </c>
+      <c r="O12" t="s">
+        <v>557</v>
+      </c>
+      <c r="P12" s="10">
+        <v>189</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>360</v>
+      </c>
+      <c r="S12" s="10">
+        <v>9</v>
+      </c>
+      <c r="T12" t="s">
+        <v>484</v>
+      </c>
+      <c r="U12" s="10">
+        <v>69</v>
+      </c>
+      <c r="V12" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="10">
+        <v>129</v>
+      </c>
+      <c r="X12" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>189</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="10">
+        <v>130</v>
+      </c>
+      <c r="F13" t="s">
+        <v>360</v>
+      </c>
+      <c r="G13" s="10">
+        <v>190</v>
+      </c>
+      <c r="H13" t="s">
+        <v>487</v>
+      </c>
+      <c r="J13" s="10">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="10">
+        <v>70</v>
+      </c>
+      <c r="M13" t="s">
+        <v>437</v>
+      </c>
+      <c r="N13" s="10">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>360</v>
+      </c>
+      <c r="P13" s="10">
+        <v>190</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>488</v>
+      </c>
+      <c r="S13" s="10">
+        <v>10</v>
+      </c>
+      <c r="T13" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="10">
+        <v>70</v>
+      </c>
+      <c r="V13" t="s">
+        <v>437</v>
+      </c>
+      <c r="W13" s="10">
+        <v>130</v>
+      </c>
+      <c r="X13" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>190</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" s="10">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="10">
+        <v>131</v>
+      </c>
+      <c r="F14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="10">
+        <v>191</v>
+      </c>
+      <c r="H14" t="s">
+        <v>488</v>
+      </c>
+      <c r="J14" s="10">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>483</v>
+      </c>
+      <c r="L14" s="10">
+        <v>71</v>
+      </c>
+      <c r="M14" t="s">
+        <v>436</v>
+      </c>
+      <c r="N14" s="10">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>558</v>
+      </c>
+      <c r="P14" s="10">
+        <v>191</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>492</v>
+      </c>
+      <c r="S14" s="10">
+        <v>11</v>
+      </c>
+      <c r="T14" t="s">
+        <v>483</v>
+      </c>
+      <c r="U14" s="10">
+        <v>71</v>
+      </c>
+      <c r="V14" t="s">
+        <v>436</v>
+      </c>
+      <c r="W14" s="10">
+        <v>131</v>
+      </c>
+      <c r="X14" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>191</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" s="10">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="10">
+        <v>132</v>
+      </c>
+      <c r="F15" t="s">
+        <v>447</v>
+      </c>
+      <c r="G15" s="10">
+        <v>192</v>
+      </c>
+      <c r="H15" t="s">
+        <v>489</v>
+      </c>
+      <c r="J15" s="10">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>520</v>
+      </c>
+      <c r="L15" s="10">
+        <v>72</v>
+      </c>
+      <c r="M15" t="s">
+        <v>432</v>
+      </c>
+      <c r="N15" s="10">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>559</v>
+      </c>
+      <c r="P15" s="10">
+        <v>192</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S15" s="10">
+        <v>12</v>
+      </c>
+      <c r="T15" t="s">
+        <v>597</v>
+      </c>
+      <c r="U15" s="10">
+        <v>72</v>
+      </c>
+      <c r="V15" t="s">
+        <v>432</v>
+      </c>
+      <c r="W15" s="10">
+        <v>132</v>
+      </c>
+      <c r="X15" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>192</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C16" s="10">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>364</v>
+      </c>
+      <c r="E16" s="10">
+        <v>133</v>
+      </c>
+      <c r="F16" t="s">
+        <v>448</v>
+      </c>
+      <c r="G16" s="10">
+        <v>193</v>
+      </c>
+      <c r="H16" t="s">
+        <v>490</v>
+      </c>
+      <c r="J16" s="10">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>521</v>
+      </c>
+      <c r="L16" s="10">
+        <v>73</v>
+      </c>
+      <c r="M16" t="s">
+        <v>434</v>
+      </c>
+      <c r="N16" s="10">
+        <v>133</v>
+      </c>
+      <c r="O16" t="s">
+        <v>560</v>
+      </c>
+      <c r="P16" s="10">
+        <v>193</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>475</v>
+      </c>
+      <c r="S16" s="10">
+        <v>13</v>
+      </c>
+      <c r="T16" t="s">
+        <v>598</v>
+      </c>
+      <c r="U16" s="10">
+        <v>73</v>
+      </c>
+      <c r="V16" t="s">
+        <v>434</v>
+      </c>
+      <c r="W16" s="10">
+        <v>133</v>
+      </c>
+      <c r="X16" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>193</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="10">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="10">
+        <v>134</v>
+      </c>
+      <c r="F17" t="s">
+        <v>449</v>
+      </c>
+      <c r="G17" s="10">
+        <v>194</v>
+      </c>
+      <c r="H17" t="s">
+        <v>491</v>
+      </c>
+      <c r="J17" s="10">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>522</v>
+      </c>
+      <c r="L17" s="10">
+        <v>74</v>
+      </c>
+      <c r="M17" t="s">
+        <v>477</v>
+      </c>
+      <c r="N17" s="10">
+        <v>134</v>
+      </c>
+      <c r="O17" t="s">
+        <v>561</v>
+      </c>
+      <c r="P17" s="10">
+        <v>194</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>474</v>
+      </c>
+      <c r="S17" s="10">
+        <v>14</v>
+      </c>
+      <c r="T17" t="s">
+        <v>599</v>
+      </c>
+      <c r="U17" s="10">
+        <v>74</v>
+      </c>
+      <c r="V17" t="s">
+        <v>477</v>
+      </c>
+      <c r="W17" s="10">
+        <v>134</v>
+      </c>
+      <c r="X17" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>194</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="10">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="10">
+        <v>135</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="10">
+        <v>195</v>
+      </c>
+      <c r="H18" t="s">
+        <v>492</v>
+      </c>
+      <c r="J18" s="10">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>480</v>
+      </c>
+      <c r="L18" s="10">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>433</v>
+      </c>
+      <c r="N18" s="10">
+        <v>135</v>
+      </c>
+      <c r="O18" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="10">
+        <v>195</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>493</v>
+      </c>
+      <c r="S18" s="10">
+        <v>15</v>
+      </c>
+      <c r="T18" t="s">
+        <v>480</v>
+      </c>
+      <c r="U18" s="10">
+        <v>75</v>
+      </c>
+      <c r="V18" t="s">
+        <v>433</v>
+      </c>
+      <c r="W18" s="10">
+        <v>135</v>
+      </c>
+      <c r="X18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>195</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="10">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="10">
+        <v>136</v>
+      </c>
+      <c r="F19" t="s">
+        <v>450</v>
+      </c>
+      <c r="G19" s="10">
+        <v>196</v>
+      </c>
+      <c r="H19" t="s">
+        <v>493</v>
+      </c>
+      <c r="J19" s="10">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>360</v>
+      </c>
+      <c r="L19" s="10">
+        <v>76</v>
+      </c>
+      <c r="M19" t="s">
+        <v>476</v>
+      </c>
+      <c r="N19" s="10">
+        <v>136</v>
+      </c>
+      <c r="O19" t="s">
+        <v>562</v>
+      </c>
+      <c r="P19" s="10">
+        <v>196</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>473</v>
+      </c>
+      <c r="S19" s="10">
+        <v>16</v>
+      </c>
+      <c r="T19" t="s">
+        <v>360</v>
+      </c>
+      <c r="U19" s="10">
+        <v>76</v>
+      </c>
+      <c r="V19" t="s">
+        <v>476</v>
+      </c>
+      <c r="W19" s="10">
+        <v>136</v>
+      </c>
+      <c r="X19" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>196</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C20" s="10">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>360</v>
+      </c>
+      <c r="E20" s="10">
+        <v>137</v>
+      </c>
+      <c r="F20" t="s">
+        <v>451</v>
+      </c>
+      <c r="G20" s="10">
+        <v>197</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="10">
+        <v>17</v>
+      </c>
+      <c r="K20" t="s">
+        <v>479</v>
+      </c>
+      <c r="L20" s="10">
+        <v>77</v>
+      </c>
+      <c r="M20" t="s">
+        <v>360</v>
+      </c>
+      <c r="N20" s="10">
+        <v>137</v>
+      </c>
+      <c r="O20" t="s">
+        <v>563</v>
+      </c>
+      <c r="P20" s="10">
+        <v>197</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="10">
+        <v>17</v>
+      </c>
+      <c r="T20" t="s">
+        <v>479</v>
+      </c>
+      <c r="U20" s="10">
+        <v>77</v>
+      </c>
+      <c r="V20" t="s">
+        <v>360</v>
+      </c>
+      <c r="W20" s="10">
+        <v>137</v>
+      </c>
+      <c r="X20" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>197</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>411</v>
+      </c>
+      <c r="C21" s="10">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="10">
+        <v>138</v>
+      </c>
+      <c r="F21" t="s">
+        <v>452</v>
+      </c>
+      <c r="G21" s="10">
+        <v>198</v>
+      </c>
+      <c r="H21" t="s">
+        <v>494</v>
+      </c>
+      <c r="J21" s="10">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>523</v>
+      </c>
+      <c r="L21" s="10">
+        <v>78</v>
+      </c>
+      <c r="M21" t="s">
+        <v>551</v>
+      </c>
+      <c r="N21" s="10">
+        <v>138</v>
+      </c>
+      <c r="O21" t="s">
+        <v>564</v>
+      </c>
+      <c r="P21" s="10">
+        <v>198</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>472</v>
+      </c>
+      <c r="S21" s="10">
+        <v>18</v>
+      </c>
+      <c r="T21" t="s">
+        <v>600</v>
+      </c>
+      <c r="U21" s="10">
+        <v>78</v>
+      </c>
+      <c r="V21" t="s">
+        <v>428</v>
+      </c>
+      <c r="W21" s="10">
+        <v>138</v>
+      </c>
+      <c r="X21" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>198</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C22" s="10">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="10">
+        <v>139</v>
+      </c>
+      <c r="F22" t="s">
+        <v>453</v>
+      </c>
+      <c r="G22" s="10">
+        <v>199</v>
+      </c>
+      <c r="H22" t="s">
+        <v>495</v>
+      </c>
+      <c r="J22" s="10">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>524</v>
+      </c>
+      <c r="L22" s="10">
+        <v>79</v>
+      </c>
+      <c r="M22" t="s">
+        <v>552</v>
+      </c>
+      <c r="N22" s="10">
+        <v>139</v>
+      </c>
+      <c r="O22" t="s">
+        <v>504</v>
+      </c>
+      <c r="P22" s="10">
+        <v>199</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>467</v>
+      </c>
+      <c r="S22" s="10">
+        <v>19</v>
+      </c>
+      <c r="T22" t="s">
+        <v>601</v>
+      </c>
+      <c r="U22" s="10">
+        <v>79</v>
+      </c>
+      <c r="V22" t="s">
+        <v>625</v>
+      </c>
+      <c r="W22" s="10">
+        <v>139</v>
+      </c>
+      <c r="X22" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>199</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>413</v>
+      </c>
+      <c r="C23" s="10">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="10">
+        <v>140</v>
+      </c>
+      <c r="F23" t="s">
+        <v>360</v>
+      </c>
+      <c r="G23" s="10">
+        <v>200</v>
+      </c>
+      <c r="H23" t="s">
+        <v>496</v>
+      </c>
+      <c r="J23" s="10">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>525</v>
+      </c>
+      <c r="L23" s="10">
+        <v>80</v>
+      </c>
+      <c r="M23" t="s">
+        <v>427</v>
+      </c>
+      <c r="N23" s="10">
+        <v>140</v>
+      </c>
+      <c r="O23" t="s">
+        <v>360</v>
+      </c>
+      <c r="P23" s="10">
+        <v>200</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>494</v>
+      </c>
+      <c r="S23" s="10">
+        <v>20</v>
+      </c>
+      <c r="T23" t="s">
+        <v>602</v>
+      </c>
+      <c r="U23" s="10">
+        <v>80</v>
+      </c>
+      <c r="V23" t="s">
+        <v>427</v>
+      </c>
+      <c r="W23" s="10">
+        <v>140</v>
+      </c>
+      <c r="X23" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>200</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C24" s="10">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="10">
+        <v>141</v>
+      </c>
+      <c r="F24" t="s">
+        <v>454</v>
+      </c>
+      <c r="G24" s="10">
+        <v>201</v>
+      </c>
+      <c r="H24" t="s">
+        <v>385</v>
+      </c>
+      <c r="J24" s="10">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>478</v>
+      </c>
+      <c r="L24" s="10">
+        <v>81</v>
+      </c>
+      <c r="M24" t="s">
+        <v>426</v>
+      </c>
+      <c r="N24" s="10">
+        <v>141</v>
+      </c>
+      <c r="O24" t="s">
+        <v>516</v>
+      </c>
+      <c r="P24" s="10">
+        <v>201</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>466</v>
+      </c>
+      <c r="S24" s="10">
+        <v>21</v>
+      </c>
+      <c r="T24" t="s">
+        <v>478</v>
+      </c>
+      <c r="U24" s="10">
+        <v>81</v>
+      </c>
+      <c r="V24" t="s">
+        <v>426</v>
+      </c>
+      <c r="W24" s="10">
+        <v>141</v>
+      </c>
+      <c r="X24" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y24" s="10">
+        <v>201</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="10">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="10">
+        <v>142</v>
+      </c>
+      <c r="F25" t="s">
+        <v>455</v>
+      </c>
+      <c r="G25" s="10">
+        <v>202</v>
+      </c>
+      <c r="H25" t="s">
+        <v>386</v>
+      </c>
+      <c r="J25" s="10">
+        <v>22</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="10">
+        <v>82</v>
+      </c>
+      <c r="M25" t="s">
+        <v>431</v>
+      </c>
+      <c r="N25" s="10">
+        <v>142</v>
+      </c>
+      <c r="O25" t="s">
+        <v>565</v>
+      </c>
+      <c r="P25" s="10">
+        <v>202</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>583</v>
+      </c>
+      <c r="S25" s="10">
+        <v>22</v>
+      </c>
+      <c r="T25" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="10">
+        <v>82</v>
+      </c>
+      <c r="V25" t="s">
+        <v>431</v>
+      </c>
+      <c r="W25" s="10">
+        <v>142</v>
+      </c>
+      <c r="X25" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>202</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B26" t="s">
+        <v>415</v>
+      </c>
+      <c r="C26" s="10">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="10">
+        <v>143</v>
+      </c>
+      <c r="F26" t="s">
+        <v>456</v>
+      </c>
+      <c r="G26" s="10">
+        <v>203</v>
+      </c>
+      <c r="H26" t="s">
+        <v>387</v>
+      </c>
+      <c r="J26" s="10">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>381</v>
+      </c>
+      <c r="L26" s="10">
+        <v>83</v>
+      </c>
+      <c r="M26" t="s">
+        <v>430</v>
+      </c>
+      <c r="N26" s="10">
+        <v>143</v>
+      </c>
+      <c r="O26" t="s">
+        <v>566</v>
+      </c>
+      <c r="P26" s="10">
+        <v>203</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>463</v>
+      </c>
+      <c r="S26" s="10">
+        <v>23</v>
+      </c>
+      <c r="T26" t="s">
+        <v>383</v>
+      </c>
+      <c r="U26" s="10">
+        <v>83</v>
+      </c>
+      <c r="V26" t="s">
+        <v>430</v>
+      </c>
+      <c r="W26" s="10">
+        <v>143</v>
+      </c>
+      <c r="X26" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>203</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>416</v>
+      </c>
+      <c r="C27" s="10">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>365</v>
+      </c>
+      <c r="E27" s="10">
+        <v>144</v>
+      </c>
+      <c r="F27" t="s">
+        <v>457</v>
+      </c>
+      <c r="G27" s="10">
+        <v>204</v>
+      </c>
+      <c r="H27" t="s">
+        <v>388</v>
+      </c>
+      <c r="J27" s="10">
+        <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>526</v>
+      </c>
+      <c r="L27" s="10">
+        <v>84</v>
+      </c>
+      <c r="M27" t="s">
+        <v>429</v>
+      </c>
+      <c r="N27" s="10">
+        <v>144</v>
+      </c>
+      <c r="O27" t="s">
+        <v>508</v>
+      </c>
+      <c r="P27" s="10">
+        <v>204</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>462</v>
+      </c>
+      <c r="S27" s="10">
+        <v>24</v>
+      </c>
+      <c r="T27" t="s">
+        <v>603</v>
+      </c>
+      <c r="U27" s="10">
+        <v>84</v>
+      </c>
+      <c r="V27" t="s">
+        <v>429</v>
+      </c>
+      <c r="W27" s="10">
+        <v>144</v>
+      </c>
+      <c r="X27" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y27" s="10">
+        <v>204</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>417</v>
+      </c>
+      <c r="C28" s="10">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10">
+        <v>145</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="10">
+        <v>205</v>
+      </c>
+      <c r="H28" t="s">
+        <v>360</v>
+      </c>
+      <c r="J28" s="10">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>527</v>
+      </c>
+      <c r="L28" s="10">
+        <v>85</v>
+      </c>
+      <c r="M28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="10">
+        <v>145</v>
+      </c>
+      <c r="O28" t="s">
+        <v>8</v>
+      </c>
+      <c r="P28" s="10">
+        <v>205</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>360</v>
+      </c>
+      <c r="S28" s="10">
+        <v>25</v>
+      </c>
+      <c r="T28" t="s">
+        <v>604</v>
+      </c>
+      <c r="U28" s="10">
+        <v>85</v>
+      </c>
+      <c r="V28" t="s">
+        <v>8</v>
+      </c>
+      <c r="W28" s="10">
+        <v>145</v>
+      </c>
+      <c r="X28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>205</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>418</v>
+      </c>
+      <c r="C29" s="10">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>366</v>
+      </c>
+      <c r="E29" s="10">
+        <v>146</v>
+      </c>
+      <c r="F29" t="s">
+        <v>458</v>
+      </c>
+      <c r="G29" s="10">
+        <v>206</v>
+      </c>
+      <c r="H29" t="s">
+        <v>497</v>
+      </c>
+      <c r="J29" s="10">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
+        <v>382</v>
+      </c>
+      <c r="L29" s="10">
+        <v>86</v>
+      </c>
+      <c r="M29" t="s">
+        <v>424</v>
+      </c>
+      <c r="N29" s="10">
+        <v>146</v>
+      </c>
+      <c r="O29" t="s">
+        <v>507</v>
+      </c>
+      <c r="P29" s="10">
+        <v>206</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>584</v>
+      </c>
+      <c r="S29" s="10">
+        <v>26</v>
+      </c>
+      <c r="T29" t="s">
+        <v>384</v>
+      </c>
+      <c r="U29" s="10">
+        <v>86</v>
+      </c>
+      <c r="V29" t="s">
+        <v>424</v>
+      </c>
+      <c r="W29" s="10">
+        <v>146</v>
+      </c>
+      <c r="X29" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y29" s="10">
+        <v>206</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C30" s="10">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" s="10">
+        <v>147</v>
+      </c>
+      <c r="F30" t="s">
+        <v>459</v>
+      </c>
+      <c r="G30" s="10">
+        <v>207</v>
+      </c>
+      <c r="H30" t="s">
+        <v>498</v>
+      </c>
+      <c r="J30" s="10">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>360</v>
+      </c>
+      <c r="L30" s="10">
+        <v>87</v>
+      </c>
+      <c r="M30" t="s">
+        <v>423</v>
+      </c>
+      <c r="N30" s="10">
+        <v>147</v>
+      </c>
+      <c r="O30" t="s">
+        <v>567</v>
+      </c>
+      <c r="P30" s="10">
+        <v>207</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>461</v>
+      </c>
+      <c r="S30" s="10">
+        <v>27</v>
+      </c>
+      <c r="T30" t="s">
+        <v>360</v>
+      </c>
+      <c r="U30" s="10">
+        <v>87</v>
+      </c>
+      <c r="V30" t="s">
+        <v>423</v>
+      </c>
+      <c r="W30" s="10">
+        <v>147</v>
+      </c>
+      <c r="X30" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y30" s="10">
+        <v>207</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>419</v>
+      </c>
+      <c r="C31" s="10">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>368</v>
+      </c>
+      <c r="E31" s="10">
+        <v>148</v>
+      </c>
+      <c r="F31" t="s">
+        <v>460</v>
+      </c>
+      <c r="G31" s="10">
+        <v>208</v>
+      </c>
+      <c r="H31" t="s">
+        <v>499</v>
+      </c>
+      <c r="J31" s="10">
+        <v>28</v>
+      </c>
+      <c r="K31" t="s">
+        <v>407</v>
+      </c>
+      <c r="L31" s="10">
+        <v>88</v>
+      </c>
+      <c r="M31" t="s">
+        <v>420</v>
+      </c>
+      <c r="N31" s="10">
+        <v>148</v>
+      </c>
+      <c r="O31" t="s">
+        <v>568</v>
+      </c>
+      <c r="P31" s="10">
+        <v>208</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>460</v>
+      </c>
+      <c r="S31" s="10">
+        <v>28</v>
+      </c>
+      <c r="T31" t="s">
+        <v>407</v>
+      </c>
+      <c r="U31" s="10">
+        <v>88</v>
+      </c>
+      <c r="V31" t="s">
+        <v>420</v>
+      </c>
+      <c r="W31" s="10">
+        <v>148</v>
+      </c>
+      <c r="X31" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>208</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>420</v>
+      </c>
+      <c r="C32" s="10">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>360</v>
+      </c>
+      <c r="E32" s="10">
+        <v>149</v>
+      </c>
+      <c r="F32" t="s">
+        <v>461</v>
+      </c>
+      <c r="G32" s="10">
+        <v>209</v>
+      </c>
+      <c r="H32" t="s">
+        <v>389</v>
+      </c>
+      <c r="J32" s="10">
+        <v>29</v>
+      </c>
+      <c r="K32" t="s">
+        <v>528</v>
+      </c>
+      <c r="L32" s="10">
+        <v>89</v>
+      </c>
+      <c r="M32" t="s">
+        <v>360</v>
+      </c>
+      <c r="N32" s="10">
+        <v>149</v>
+      </c>
+      <c r="O32" t="s">
+        <v>506</v>
+      </c>
+      <c r="P32" s="10">
+        <v>209</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>394</v>
+      </c>
+      <c r="S32" s="10">
+        <v>29</v>
+      </c>
+      <c r="T32" t="s">
+        <v>605</v>
+      </c>
+      <c r="U32" s="10">
+        <v>89</v>
+      </c>
+      <c r="V32" t="s">
+        <v>360</v>
+      </c>
+      <c r="W32" s="10">
+        <v>149</v>
+      </c>
+      <c r="X32" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>209</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>421</v>
+      </c>
+      <c r="C33" s="10">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>369</v>
+      </c>
+      <c r="E33" s="10">
+        <v>150</v>
+      </c>
+      <c r="F33" t="s">
+        <v>360</v>
+      </c>
+      <c r="G33" s="10">
+        <v>210</v>
+      </c>
+      <c r="H33" t="s">
+        <v>390</v>
+      </c>
+      <c r="J33" s="10">
+        <v>30</v>
+      </c>
+      <c r="K33" t="s">
+        <v>529</v>
+      </c>
+      <c r="L33" s="10">
+        <v>90</v>
+      </c>
+      <c r="M33" t="s">
+        <v>369</v>
+      </c>
+      <c r="N33" s="10">
+        <v>150</v>
+      </c>
+      <c r="O33" t="s">
+        <v>360</v>
+      </c>
+      <c r="P33" s="10">
+        <v>210</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>386</v>
+      </c>
+      <c r="S33" s="10">
+        <v>30</v>
+      </c>
+      <c r="T33" t="s">
+        <v>606</v>
+      </c>
+      <c r="U33" s="10">
+        <v>90</v>
+      </c>
+      <c r="V33" t="s">
+        <v>369</v>
+      </c>
+      <c r="W33" s="10">
+        <v>150</v>
+      </c>
+      <c r="X33" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y33" s="10">
+        <v>210</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>422</v>
+      </c>
+      <c r="C34" s="10">
+        <v>91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>370</v>
+      </c>
+      <c r="E34" s="10">
+        <v>151</v>
+      </c>
+      <c r="F34" t="s">
+        <v>462</v>
+      </c>
+      <c r="G34" s="10">
+        <v>211</v>
+      </c>
+      <c r="H34" t="s">
+        <v>391</v>
+      </c>
+      <c r="J34" s="10">
+        <v>31</v>
+      </c>
+      <c r="K34" t="s">
+        <v>530</v>
+      </c>
+      <c r="L34" s="10">
+        <v>91</v>
+      </c>
+      <c r="M34" t="s">
+        <v>370</v>
+      </c>
+      <c r="N34" s="10">
+        <v>151</v>
+      </c>
+      <c r="O34" t="s">
+        <v>505</v>
+      </c>
+      <c r="P34" s="10">
+        <v>211</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>585</v>
+      </c>
+      <c r="S34" s="10">
+        <v>31</v>
+      </c>
+      <c r="T34" t="s">
+        <v>530</v>
+      </c>
+      <c r="U34" s="10">
+        <v>91</v>
+      </c>
+      <c r="V34" t="s">
+        <v>370</v>
+      </c>
+      <c r="W34" s="10">
+        <v>151</v>
+      </c>
+      <c r="X34" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y34" s="10">
+        <v>211</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="10">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>371</v>
+      </c>
+      <c r="E35" s="10">
+        <v>152</v>
+      </c>
+      <c r="F35" t="s">
+        <v>463</v>
+      </c>
+      <c r="G35" s="10">
+        <v>212</v>
+      </c>
+      <c r="H35" t="s">
+        <v>392</v>
+      </c>
+      <c r="J35" s="10">
+        <v>32</v>
+      </c>
+      <c r="K35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="10">
+        <v>92</v>
+      </c>
+      <c r="M35" t="s">
+        <v>553</v>
+      </c>
+      <c r="N35" s="10">
+        <v>152</v>
+      </c>
+      <c r="O35" t="s">
+        <v>569</v>
+      </c>
+      <c r="P35" s="10">
+        <v>212</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>385</v>
+      </c>
+      <c r="S35" s="10">
+        <v>32</v>
+      </c>
+      <c r="T35" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" s="10">
+        <v>92</v>
+      </c>
+      <c r="V35" t="s">
+        <v>626</v>
+      </c>
+      <c r="W35" s="10">
+        <v>152</v>
+      </c>
+      <c r="X35" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>212</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>423</v>
+      </c>
+      <c r="C36" s="10">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="10">
+        <v>153</v>
+      </c>
+      <c r="F36" t="s">
+        <v>464</v>
+      </c>
+      <c r="G36" s="10">
+        <v>213</v>
+      </c>
+      <c r="H36" t="s">
+        <v>393</v>
+      </c>
+      <c r="J36" s="10">
+        <v>33</v>
+      </c>
+      <c r="K36" t="s">
+        <v>401</v>
+      </c>
+      <c r="L36" s="10">
+        <v>93</v>
+      </c>
+      <c r="M36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" s="10">
+        <v>153</v>
+      </c>
+      <c r="O36" t="s">
+        <v>570</v>
+      </c>
+      <c r="P36" s="10">
+        <v>213</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>465</v>
+      </c>
+      <c r="S36" s="10">
+        <v>33</v>
+      </c>
+      <c r="T36" t="s">
+        <v>401</v>
+      </c>
+      <c r="U36" s="10">
+        <v>93</v>
+      </c>
+      <c r="V36" t="s">
+        <v>8</v>
+      </c>
+      <c r="W36" s="10">
+        <v>153</v>
+      </c>
+      <c r="X36" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y36" s="10">
+        <v>213</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>424</v>
+      </c>
+      <c r="C37" s="10">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>372</v>
+      </c>
+      <c r="E37" s="10">
+        <v>154</v>
+      </c>
+      <c r="F37" t="s">
+        <v>465</v>
+      </c>
+      <c r="G37" s="10">
+        <v>214</v>
+      </c>
+      <c r="H37" t="s">
+        <v>500</v>
+      </c>
+      <c r="J37" s="10">
+        <v>34</v>
+      </c>
+      <c r="K37" t="s">
+        <v>531</v>
+      </c>
+      <c r="L37" s="10">
+        <v>94</v>
+      </c>
+      <c r="M37" t="s">
+        <v>422</v>
+      </c>
+      <c r="N37" s="10">
+        <v>154</v>
+      </c>
+      <c r="O37" t="s">
+        <v>503</v>
+      </c>
+      <c r="P37" s="10">
+        <v>214</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>464</v>
+      </c>
+      <c r="S37" s="10">
+        <v>34</v>
+      </c>
+      <c r="T37" t="s">
+        <v>586</v>
+      </c>
+      <c r="U37" s="10">
+        <v>94</v>
+      </c>
+      <c r="V37" t="s">
+        <v>422</v>
+      </c>
+      <c r="W37" s="10">
+        <v>154</v>
+      </c>
+      <c r="X37" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>214</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C38" s="10">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
+        <v>373</v>
+      </c>
+      <c r="E38" s="10">
+        <v>155</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="10">
+        <v>215</v>
+      </c>
+      <c r="H38" t="s">
+        <v>501</v>
+      </c>
+      <c r="J38" s="10">
+        <v>35</v>
+      </c>
+      <c r="K38" t="s">
+        <v>532</v>
+      </c>
+      <c r="L38" s="10">
+        <v>95</v>
+      </c>
+      <c r="M38" t="s">
+        <v>421</v>
+      </c>
+      <c r="N38" s="10">
+        <v>155</v>
+      </c>
+      <c r="O38" t="s">
+        <v>8</v>
+      </c>
+      <c r="P38" s="10">
+        <v>215</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>459</v>
+      </c>
+      <c r="S38" s="10">
+        <v>35</v>
+      </c>
+      <c r="T38" t="s">
+        <v>607</v>
+      </c>
+      <c r="U38" s="10">
+        <v>95</v>
+      </c>
+      <c r="V38" t="s">
+        <v>421</v>
+      </c>
+      <c r="W38" s="10">
+        <v>155</v>
+      </c>
+      <c r="X38" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y38" s="10">
+        <v>215</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>426</v>
+      </c>
+      <c r="C39" s="10">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>360</v>
+      </c>
+      <c r="E39" s="10">
+        <v>156</v>
+      </c>
+      <c r="F39" t="s">
+        <v>466</v>
+      </c>
+      <c r="G39" s="10">
+        <v>216</v>
+      </c>
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="10">
+        <v>36</v>
+      </c>
+      <c r="K39" t="s">
+        <v>517</v>
+      </c>
+      <c r="L39" s="10">
+        <v>96</v>
+      </c>
+      <c r="M39" t="s">
+        <v>360</v>
+      </c>
+      <c r="N39" s="10">
+        <v>156</v>
+      </c>
+      <c r="O39" t="s">
+        <v>502</v>
+      </c>
+      <c r="P39" s="10">
+        <v>216</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>8</v>
+      </c>
+      <c r="S39" s="10">
+        <v>36</v>
+      </c>
+      <c r="T39" t="s">
+        <v>517</v>
+      </c>
+      <c r="U39" s="10">
+        <v>96</v>
+      </c>
+      <c r="V39" t="s">
+        <v>360</v>
+      </c>
+      <c r="W39" s="10">
+        <v>156</v>
+      </c>
+      <c r="X39" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y39" s="10">
+        <v>216</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>360</v>
+      </c>
+      <c r="C40" s="10">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>374</v>
+      </c>
+      <c r="E40" s="10">
+        <v>157</v>
+      </c>
+      <c r="F40" t="s">
+        <v>467</v>
+      </c>
+      <c r="G40" s="10">
+        <v>217</v>
+      </c>
+      <c r="H40" t="s">
+        <v>502</v>
+      </c>
+      <c r="J40" s="10">
+        <v>37</v>
+      </c>
+      <c r="K40" t="s">
+        <v>360</v>
+      </c>
+      <c r="L40" s="10">
+        <v>97</v>
+      </c>
+      <c r="M40" t="s">
+        <v>425</v>
+      </c>
+      <c r="N40" s="10">
+        <v>157</v>
+      </c>
+      <c r="O40" t="s">
+        <v>573</v>
+      </c>
+      <c r="P40" s="10">
+        <v>217</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>458</v>
+      </c>
+      <c r="S40" s="10">
+        <v>37</v>
+      </c>
+      <c r="T40" t="s">
+        <v>360</v>
+      </c>
+      <c r="U40" s="10">
+        <v>97</v>
+      </c>
+      <c r="V40" t="s">
+        <v>425</v>
+      </c>
+      <c r="W40" s="10">
+        <v>157</v>
+      </c>
+      <c r="X40" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y40" s="10">
+        <v>217</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>427</v>
+      </c>
+      <c r="C41" s="10">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
+        <v>375</v>
+      </c>
+      <c r="E41" s="10">
+        <v>158</v>
+      </c>
+      <c r="F41" t="s">
+        <v>468</v>
+      </c>
+      <c r="G41" s="10">
+        <v>218</v>
+      </c>
+      <c r="H41" t="s">
+        <v>503</v>
+      </c>
+      <c r="J41" s="10">
+        <v>38</v>
+      </c>
+      <c r="K41" t="s">
+        <v>533</v>
+      </c>
+      <c r="L41" s="10">
+        <v>98</v>
+      </c>
+      <c r="M41" t="s">
+        <v>419</v>
+      </c>
+      <c r="N41" s="10">
+        <v>158</v>
+      </c>
+      <c r="O41" t="s">
+        <v>574</v>
+      </c>
+      <c r="P41" s="10">
+        <v>218</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>587</v>
+      </c>
+      <c r="S41" s="10">
+        <v>38</v>
+      </c>
+      <c r="T41" t="s">
+        <v>608</v>
+      </c>
+      <c r="U41" s="10">
+        <v>98</v>
+      </c>
+      <c r="V41" t="s">
+        <v>419</v>
+      </c>
+      <c r="W41" s="10">
+        <v>158</v>
+      </c>
+      <c r="X41" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y41" s="10">
+        <v>218</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
         <v>39</v>
       </c>
-      <c r="C3">
-        <v>62</v>
-      </c>
-      <c r="E3">
-        <v>122</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>182</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>63</v>
-      </c>
-      <c r="E4">
-        <v>123</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B42" t="s">
+        <v>428</v>
+      </c>
+      <c r="C42" s="10">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>376</v>
+      </c>
+      <c r="E42" s="10">
+        <v>159</v>
+      </c>
+      <c r="F42" t="s">
+        <v>469</v>
+      </c>
+      <c r="G42" s="10">
+        <v>219</v>
+      </c>
+      <c r="H42" t="s">
+        <v>394</v>
+      </c>
+      <c r="J42" s="10">
+        <v>39</v>
+      </c>
+      <c r="K42" t="s">
+        <v>534</v>
+      </c>
+      <c r="L42" s="10">
+        <v>99</v>
+      </c>
+      <c r="M42" t="s">
+        <v>418</v>
+      </c>
+      <c r="N42" s="10">
+        <v>159</v>
+      </c>
+      <c r="O42" t="s">
+        <v>575</v>
+      </c>
+      <c r="P42" s="10">
+        <v>219</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>457</v>
+      </c>
+      <c r="S42" s="10">
+        <v>39</v>
+      </c>
+      <c r="T42" t="s">
+        <v>609</v>
+      </c>
+      <c r="U42" s="10">
+        <v>99</v>
+      </c>
+      <c r="V42" t="s">
+        <v>418</v>
+      </c>
+      <c r="W42" s="10">
+        <v>159</v>
+      </c>
+      <c r="X42" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y42" s="10">
+        <v>219</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>429</v>
+      </c>
+      <c r="C43" s="10">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>254</v>
+      </c>
+      <c r="E43" s="10">
+        <v>160</v>
+      </c>
+      <c r="F43" t="s">
+        <v>360</v>
+      </c>
+      <c r="G43" s="10">
+        <v>220</v>
+      </c>
+      <c r="H43" t="s">
+        <v>395</v>
+      </c>
+      <c r="J43" s="10">
+        <v>40</v>
+      </c>
+      <c r="K43" t="s">
+        <v>535</v>
+      </c>
+      <c r="L43" s="10">
+        <v>100</v>
+      </c>
+      <c r="M43" t="s">
+        <v>416</v>
+      </c>
+      <c r="N43" s="10">
+        <v>160</v>
+      </c>
+      <c r="O43" t="s">
+        <v>360</v>
+      </c>
+      <c r="P43" s="10">
+        <v>220</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>588</v>
+      </c>
+      <c r="S43" s="10">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s">
+        <v>610</v>
+      </c>
+      <c r="U43" s="10">
+        <v>100</v>
+      </c>
+      <c r="V43" t="s">
+        <v>416</v>
+      </c>
+      <c r="W43" s="10">
+        <v>160</v>
+      </c>
+      <c r="X43" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y43" s="10">
+        <v>220</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>430</v>
+      </c>
+      <c r="C44" s="10">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>377</v>
+      </c>
+      <c r="E44" s="10">
+        <v>161</v>
+      </c>
+      <c r="F44" t="s">
+        <v>470</v>
+      </c>
+      <c r="G44" s="10">
+        <v>221</v>
+      </c>
+      <c r="H44" t="s">
+        <v>504</v>
+      </c>
+      <c r="J44" s="10">
+        <v>41</v>
+      </c>
+      <c r="K44" t="s">
+        <v>536</v>
+      </c>
+      <c r="L44" s="10">
+        <v>101</v>
+      </c>
+      <c r="M44" t="s">
+        <v>417</v>
+      </c>
+      <c r="N44" s="10">
+        <v>161</v>
+      </c>
+      <c r="O44" t="s">
+        <v>576</v>
+      </c>
+      <c r="P44" s="10">
+        <v>221</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>451</v>
+      </c>
+      <c r="S44" s="10">
+        <v>41</v>
+      </c>
+      <c r="T44" t="s">
+        <v>611</v>
+      </c>
+      <c r="U44" s="10">
+        <v>101</v>
+      </c>
+      <c r="V44" t="s">
+        <v>417</v>
+      </c>
+      <c r="W44" s="10">
+        <v>161</v>
+      </c>
+      <c r="X44" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y44" s="10">
+        <v>221</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="10">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>259</v>
+      </c>
+      <c r="E45" s="10">
+        <v>162</v>
+      </c>
+      <c r="F45" t="s">
+        <v>471</v>
+      </c>
+      <c r="G45" s="10">
+        <v>222</v>
+      </c>
+      <c r="H45" t="s">
+        <v>505</v>
+      </c>
+      <c r="J45" s="10">
+        <v>42</v>
+      </c>
+      <c r="K45" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="10">
+        <v>102</v>
+      </c>
+      <c r="M45" t="s">
+        <v>415</v>
+      </c>
+      <c r="N45" s="10">
+        <v>162</v>
+      </c>
+      <c r="O45" t="s">
+        <v>572</v>
+      </c>
+      <c r="P45" s="10">
+        <v>222</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>486</v>
+      </c>
+      <c r="S45" s="10">
+        <v>42</v>
+      </c>
+      <c r="T45" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="10">
+        <v>102</v>
+      </c>
+      <c r="V45" t="s">
+        <v>415</v>
+      </c>
+      <c r="W45" s="10">
+        <v>162</v>
+      </c>
+      <c r="X45" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y45" s="10">
+        <v>222</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
         <v>43</v>
       </c>
-      <c r="G4">
-        <v>183</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>64</v>
-      </c>
-      <c r="E5">
-        <v>124</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B46" t="s">
+        <v>431</v>
+      </c>
+      <c r="C46" s="10">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" s="10">
+        <v>163</v>
+      </c>
+      <c r="F46" t="s">
+        <v>472</v>
+      </c>
+      <c r="G46" s="10">
+        <v>223</v>
+      </c>
+      <c r="H46" t="s">
+        <v>506</v>
+      </c>
+      <c r="J46" s="10">
+        <v>43</v>
+      </c>
+      <c r="K46" t="s">
+        <v>537</v>
+      </c>
+      <c r="L46" s="10">
+        <v>103</v>
+      </c>
+      <c r="M46" t="s">
+        <v>509</v>
+      </c>
+      <c r="N46" s="10">
+        <v>163</v>
+      </c>
+      <c r="O46" t="s">
+        <v>571</v>
+      </c>
+      <c r="P46" s="10">
+        <v>223</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>455</v>
+      </c>
+      <c r="S46" s="10">
+        <v>43</v>
+      </c>
+      <c r="T46" t="s">
+        <v>612</v>
+      </c>
+      <c r="U46" s="10">
+        <v>103</v>
+      </c>
+      <c r="V46" t="s">
+        <v>509</v>
+      </c>
+      <c r="W46" s="10">
+        <v>163</v>
+      </c>
+      <c r="X46" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y46" s="10">
+        <v>223</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
         <v>44</v>
       </c>
-      <c r="G5">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>65</v>
-      </c>
-      <c r="E6">
-        <v>125</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>185</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>66</v>
-      </c>
-      <c r="E7">
-        <v>126</v>
-      </c>
-      <c r="G7">
-        <v>186</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>67</v>
-      </c>
-      <c r="E8">
-        <v>127</v>
-      </c>
-      <c r="G8">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B47" t="s">
+        <v>432</v>
+      </c>
+      <c r="C47" s="10">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>68</v>
-      </c>
-      <c r="E9">
-        <v>128</v>
-      </c>
-      <c r="G9">
-        <v>188</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>129</v>
-      </c>
-      <c r="G10">
-        <v>189</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>70</v>
-      </c>
-      <c r="E11">
-        <v>130</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>190</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>71</v>
-      </c>
-      <c r="E12">
-        <v>131</v>
-      </c>
-      <c r="G12">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>72</v>
-      </c>
-      <c r="E13">
-        <v>132</v>
-      </c>
-      <c r="G13">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>73</v>
-      </c>
-      <c r="E14">
-        <v>133</v>
-      </c>
-      <c r="G14">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>74</v>
-      </c>
-      <c r="E15">
-        <v>134</v>
-      </c>
-      <c r="G15">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>75</v>
-      </c>
-      <c r="E16">
-        <v>135</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>76</v>
-      </c>
-      <c r="E17">
-        <v>136</v>
-      </c>
-      <c r="G17">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>137</v>
-      </c>
-      <c r="G18">
-        <v>197</v>
-      </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="E47" s="10">
+        <v>164</v>
+      </c>
+      <c r="F47" t="s">
+        <v>473</v>
+      </c>
+      <c r="G47" s="10">
+        <v>224</v>
+      </c>
+      <c r="H47" t="s">
+        <v>360</v>
+      </c>
+      <c r="J47" s="10">
+        <v>44</v>
+      </c>
+      <c r="K47" t="s">
+        <v>538</v>
+      </c>
+      <c r="L47" s="10">
+        <v>104</v>
+      </c>
+      <c r="M47" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="10">
+        <v>164</v>
+      </c>
+      <c r="O47" t="s">
+        <v>499</v>
+      </c>
+      <c r="P47" s="10">
+        <v>224</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>360</v>
+      </c>
+      <c r="S47" s="10">
+        <v>44</v>
+      </c>
+      <c r="T47" t="s">
+        <v>613</v>
+      </c>
+      <c r="U47" s="10">
+        <v>104</v>
+      </c>
+      <c r="V47" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="10">
+        <v>164</v>
+      </c>
+      <c r="X47" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y47" s="10">
+        <v>224</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>433</v>
+      </c>
+      <c r="C48" s="10">
+        <v>105</v>
+      </c>
+      <c r="D48" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="10">
+        <v>165</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="10">
+        <v>225</v>
+      </c>
+      <c r="H48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="10">
+        <v>45</v>
+      </c>
+      <c r="K48" t="s">
+        <v>539</v>
+      </c>
+      <c r="L48" s="10">
+        <v>105</v>
+      </c>
+      <c r="M48" t="s">
+        <v>414</v>
+      </c>
+      <c r="N48" s="10">
+        <v>165</v>
+      </c>
+      <c r="O48" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="10">
+        <v>225</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>454</v>
+      </c>
+      <c r="S48" s="10">
+        <v>45</v>
+      </c>
+      <c r="T48" t="s">
+        <v>614</v>
+      </c>
+      <c r="U48" s="10">
+        <v>105</v>
+      </c>
+      <c r="V48" t="s">
+        <v>414</v>
+      </c>
+      <c r="W48" s="10">
+        <v>165</v>
+      </c>
+      <c r="X48" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="10">
+        <v>225</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>434</v>
+      </c>
+      <c r="C49" s="10">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="10">
+        <v>166</v>
+      </c>
+      <c r="F49" t="s">
+        <v>474</v>
+      </c>
+      <c r="G49" s="10">
+        <v>226</v>
+      </c>
+      <c r="H49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49" s="10">
+        <v>46</v>
+      </c>
+      <c r="K49" t="s">
+        <v>540</v>
+      </c>
+      <c r="L49" s="10">
+        <v>106</v>
+      </c>
+      <c r="M49" t="s">
+        <v>413</v>
+      </c>
+      <c r="N49" s="10">
+        <v>166</v>
+      </c>
+      <c r="O49" t="s">
+        <v>498</v>
+      </c>
+      <c r="P49" s="10">
+        <v>226</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>589</v>
+      </c>
+      <c r="S49" s="10">
+        <v>46</v>
+      </c>
+      <c r="T49" t="s">
+        <v>615</v>
+      </c>
+      <c r="U49" s="10">
+        <v>106</v>
+      </c>
+      <c r="V49" t="s">
+        <v>413</v>
+      </c>
+      <c r="W49" s="10">
+        <v>166</v>
+      </c>
+      <c r="X49" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y49" s="10">
+        <v>226</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>360</v>
+      </c>
+      <c r="C50" s="10">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>275</v>
+      </c>
+      <c r="E50" s="10">
+        <v>167</v>
+      </c>
+      <c r="F50" t="s">
+        <v>475</v>
+      </c>
+      <c r="G50" s="10">
+        <v>227</v>
+      </c>
+      <c r="H50" t="s">
+        <v>396</v>
+      </c>
+      <c r="J50" s="10">
+        <v>47</v>
+      </c>
+      <c r="K50" t="s">
+        <v>360</v>
+      </c>
+      <c r="L50" s="10">
+        <v>107</v>
+      </c>
+      <c r="M50" t="s">
+        <v>406</v>
+      </c>
+      <c r="N50" s="10">
+        <v>167</v>
+      </c>
+      <c r="O50" t="s">
+        <v>577</v>
+      </c>
+      <c r="P50" s="10">
+        <v>227</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>453</v>
+      </c>
+      <c r="S50" s="10">
+        <v>47</v>
+      </c>
+      <c r="T50" t="s">
+        <v>360</v>
+      </c>
+      <c r="U50" s="10">
+        <v>107</v>
+      </c>
+      <c r="V50" t="s">
+        <v>406</v>
+      </c>
+      <c r="W50" s="10">
+        <v>167</v>
+      </c>
+      <c r="X50" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y50" s="10">
+        <v>227</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>435</v>
+      </c>
+      <c r="C51" s="10">
+        <v>108</v>
+      </c>
+      <c r="D51" t="s">
+        <v>283</v>
+      </c>
+      <c r="E51" s="10">
+        <v>168</v>
+      </c>
+      <c r="F51" t="s">
+        <v>476</v>
+      </c>
+      <c r="G51" s="10">
+        <v>228</v>
+      </c>
+      <c r="H51" t="s">
+        <v>397</v>
+      </c>
+      <c r="J51" s="10">
+        <v>48</v>
+      </c>
+      <c r="K51" t="s">
+        <v>541</v>
+      </c>
+      <c r="L51" s="10">
+        <v>108</v>
+      </c>
+      <c r="M51" t="s">
+        <v>510</v>
+      </c>
+      <c r="N51" s="10">
+        <v>168</v>
+      </c>
+      <c r="O51" t="s">
+        <v>489</v>
+      </c>
+      <c r="P51" s="10">
+        <v>228</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>452</v>
+      </c>
+      <c r="S51" s="10">
+        <v>48</v>
+      </c>
+      <c r="T51" t="s">
+        <v>616</v>
+      </c>
+      <c r="U51" s="10">
+        <v>108</v>
+      </c>
+      <c r="V51" t="s">
+        <v>510</v>
+      </c>
+      <c r="W51" s="10">
+        <v>168</v>
+      </c>
+      <c r="X51" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y51" s="10">
+        <v>228</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>401</v>
+      </c>
+      <c r="C52" s="10">
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>286</v>
+      </c>
+      <c r="E52" s="10">
+        <v>169</v>
+      </c>
+      <c r="F52" t="s">
+        <v>477</v>
+      </c>
+      <c r="G52" s="10">
+        <v>229</v>
+      </c>
+      <c r="H52" t="s">
+        <v>507</v>
+      </c>
+      <c r="J52" s="10">
+        <v>49</v>
+      </c>
+      <c r="K52" t="s">
+        <v>542</v>
+      </c>
+      <c r="L52" s="10">
+        <v>109</v>
+      </c>
+      <c r="M52" t="s">
+        <v>412</v>
+      </c>
+      <c r="N52" s="10">
+        <v>169</v>
+      </c>
+      <c r="O52" t="s">
+        <v>578</v>
+      </c>
+      <c r="P52" s="10">
+        <v>229</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>451</v>
+      </c>
+      <c r="S52" s="10">
+        <v>49</v>
+      </c>
+      <c r="T52" t="s">
+        <v>617</v>
+      </c>
+      <c r="U52" s="10">
+        <v>109</v>
+      </c>
+      <c r="V52" t="s">
+        <v>412</v>
+      </c>
+      <c r="W52" s="10">
+        <v>169</v>
+      </c>
+      <c r="X52" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y52" s="10">
+        <v>229</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>436</v>
+      </c>
+      <c r="C53" s="10">
+        <v>110</v>
+      </c>
+      <c r="D53" t="s">
+        <v>294</v>
+      </c>
+      <c r="E53" s="10">
+        <v>170</v>
+      </c>
+      <c r="F53" t="s">
+        <v>360</v>
+      </c>
+      <c r="G53" s="10">
+        <v>230</v>
+      </c>
+      <c r="H53" t="s">
+        <v>508</v>
+      </c>
+      <c r="J53" s="10">
+        <v>50</v>
+      </c>
+      <c r="K53" t="s">
+        <v>543</v>
+      </c>
+      <c r="L53" s="10">
+        <v>110</v>
+      </c>
+      <c r="M53" t="s">
+        <v>405</v>
+      </c>
+      <c r="N53" s="10">
+        <v>170</v>
+      </c>
+      <c r="O53" t="s">
+        <v>360</v>
+      </c>
+      <c r="P53" s="10">
+        <v>230</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>450</v>
+      </c>
+      <c r="S53" s="10">
+        <v>50</v>
+      </c>
+      <c r="T53" t="s">
+        <v>618</v>
+      </c>
+      <c r="U53" s="10">
+        <v>110</v>
+      </c>
+      <c r="V53" t="s">
+        <v>405</v>
+      </c>
+      <c r="W53" s="10">
+        <v>170</v>
+      </c>
+      <c r="X53" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y53" s="10">
+        <v>230</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>437</v>
+      </c>
+      <c r="C54" s="10">
+        <v>111</v>
+      </c>
+      <c r="D54" t="s">
+        <v>378</v>
+      </c>
+      <c r="E54" s="10">
+        <v>171</v>
+      </c>
+      <c r="F54" t="s">
+        <v>478</v>
+      </c>
+      <c r="G54" s="10">
+        <v>231</v>
+      </c>
+      <c r="H54" t="s">
+        <v>509</v>
+      </c>
+      <c r="J54" s="10">
+        <v>51</v>
+      </c>
+      <c r="K54" t="s">
+        <v>544</v>
+      </c>
+      <c r="L54" s="10">
+        <v>111</v>
+      </c>
+      <c r="M54" t="s">
+        <v>511</v>
+      </c>
+      <c r="N54" s="10">
+        <v>171</v>
+      </c>
+      <c r="O54" t="s">
+        <v>496</v>
+      </c>
+      <c r="P54" s="10">
+        <v>231</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>449</v>
+      </c>
+      <c r="S54" s="10">
+        <v>51</v>
+      </c>
+      <c r="T54" t="s">
+        <v>619</v>
+      </c>
+      <c r="U54" s="10">
+        <v>111</v>
+      </c>
+      <c r="V54" t="s">
+        <v>511</v>
+      </c>
+      <c r="W54" s="10">
+        <v>171</v>
+      </c>
+      <c r="X54" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y54" s="10">
+        <v>231</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="10">
+        <v>112</v>
+      </c>
+      <c r="D55" t="s">
+        <v>360</v>
+      </c>
+      <c r="E55" s="10">
+        <v>172</v>
+      </c>
+      <c r="F55" t="s">
+        <v>479</v>
+      </c>
+      <c r="G55" s="10">
+        <v>232</v>
+      </c>
+      <c r="H55" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="10">
+        <v>52</v>
+      </c>
+      <c r="K55" t="s">
+        <v>8</v>
+      </c>
+      <c r="L55" s="10">
+        <v>112</v>
+      </c>
+      <c r="M55" t="s">
+        <v>360</v>
+      </c>
+      <c r="N55" s="10">
+        <v>172</v>
+      </c>
+      <c r="O55" t="s">
+        <v>579</v>
+      </c>
+      <c r="P55" s="10">
+        <v>232</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>8</v>
+      </c>
+      <c r="S55" s="10">
+        <v>52</v>
+      </c>
+      <c r="T55" t="s">
+        <v>8</v>
+      </c>
+      <c r="U55" s="10">
+        <v>112</v>
+      </c>
+      <c r="V55" t="s">
+        <v>360</v>
+      </c>
+      <c r="W55" s="10">
+        <v>172</v>
+      </c>
+      <c r="X55" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y55" s="10">
+        <v>232</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>438</v>
+      </c>
+      <c r="C56" s="10">
+        <v>113</v>
+      </c>
+      <c r="D56" t="s">
+        <v>299</v>
+      </c>
+      <c r="E56" s="10">
+        <v>173</v>
+      </c>
+      <c r="F56" t="s">
+        <v>480</v>
+      </c>
+      <c r="G56" s="10">
+        <v>233</v>
+      </c>
+      <c r="H56" t="s">
+        <v>510</v>
+      </c>
+      <c r="J56" s="10">
+        <v>53</v>
+      </c>
+      <c r="K56" t="s">
+        <v>545</v>
+      </c>
+      <c r="L56" s="10">
+        <v>113</v>
+      </c>
+      <c r="M56" t="s">
+        <v>404</v>
+      </c>
+      <c r="N56" s="10">
+        <v>173</v>
+      </c>
+      <c r="O56" t="s">
+        <v>580</v>
+      </c>
+      <c r="P56" s="10">
+        <v>233</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>448</v>
+      </c>
+      <c r="S56" s="10">
+        <v>53</v>
+      </c>
+      <c r="T56" t="s">
+        <v>620</v>
+      </c>
+      <c r="U56" s="10">
+        <v>113</v>
+      </c>
+      <c r="V56" t="s">
+        <v>404</v>
+      </c>
+      <c r="W56" s="10">
+        <v>173</v>
+      </c>
+      <c r="X56" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y56" s="10">
+        <v>233</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>439</v>
+      </c>
+      <c r="C57" s="10">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
+        <v>302</v>
+      </c>
+      <c r="E57" s="10">
+        <v>174</v>
+      </c>
+      <c r="F57" t="s">
+        <v>481</v>
+      </c>
+      <c r="G57" s="10">
+        <v>234</v>
+      </c>
+      <c r="H57" t="s">
+        <v>511</v>
+      </c>
+      <c r="J57" s="10">
+        <v>54</v>
+      </c>
+      <c r="K57" t="s">
+        <v>546</v>
+      </c>
+      <c r="L57" s="10">
+        <v>114</v>
+      </c>
+      <c r="M57" t="s">
+        <v>403</v>
+      </c>
+      <c r="N57" s="10">
+        <v>174</v>
+      </c>
+      <c r="O57" t="s">
+        <v>581</v>
+      </c>
+      <c r="P57" s="10">
+        <v>234</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>443</v>
+      </c>
+      <c r="S57" s="10">
+        <v>54</v>
+      </c>
+      <c r="T57" t="s">
+        <v>621</v>
+      </c>
+      <c r="U57" s="10">
+        <v>114</v>
+      </c>
+      <c r="V57" t="s">
+        <v>403</v>
+      </c>
+      <c r="W57" s="10">
+        <v>174</v>
+      </c>
+      <c r="X57" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y57" s="10">
+        <v>234</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>440</v>
+      </c>
+      <c r="C58" s="10">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
+        <v>310</v>
+      </c>
+      <c r="E58" s="10">
+        <v>175</v>
+      </c>
+      <c r="F58" t="s">
+        <v>482</v>
+      </c>
+      <c r="G58" s="10">
+        <v>235</v>
+      </c>
+      <c r="H58" t="s">
+        <v>512</v>
+      </c>
+      <c r="J58" s="10">
+        <v>55</v>
+      </c>
+      <c r="K58" t="s">
+        <v>547</v>
+      </c>
+      <c r="L58" s="10">
+        <v>115</v>
+      </c>
+      <c r="M58" t="s">
+        <v>512</v>
+      </c>
+      <c r="N58" s="10">
+        <v>175</v>
+      </c>
+      <c r="O58" t="s">
+        <v>495</v>
+      </c>
+      <c r="P58" s="10">
+        <v>235</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>442</v>
+      </c>
+      <c r="S58" s="10">
+        <v>55</v>
+      </c>
+      <c r="T58" t="s">
+        <v>622</v>
+      </c>
+      <c r="U58" s="10">
+        <v>115</v>
+      </c>
+      <c r="V58" t="s">
+        <v>512</v>
+      </c>
+      <c r="W58" s="10">
+        <v>175</v>
+      </c>
+      <c r="X58" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y58" s="10">
+        <v>235</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C59" s="10">
+        <v>116</v>
+      </c>
+      <c r="D59" t="s">
+        <v>307</v>
+      </c>
+      <c r="E59" s="10">
+        <v>176</v>
+      </c>
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="10">
+        <v>236</v>
+      </c>
+      <c r="H59" t="s">
+        <v>513</v>
+      </c>
+      <c r="J59" s="10">
+        <v>56</v>
+      </c>
+      <c r="K59" t="s">
+        <v>548</v>
+      </c>
+      <c r="L59" s="10">
+        <v>116</v>
+      </c>
+      <c r="M59" t="s">
+        <v>411</v>
+      </c>
+      <c r="N59" s="10">
+        <v>176</v>
+      </c>
+      <c r="O59" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="10">
+        <v>236</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>447</v>
+      </c>
+      <c r="S59" s="10">
+        <v>56</v>
+      </c>
+      <c r="T59" t="s">
+        <v>623</v>
+      </c>
+      <c r="U59" s="10">
+        <v>116</v>
+      </c>
+      <c r="V59" t="s">
+        <v>411</v>
+      </c>
+      <c r="W59" s="10">
+        <v>176</v>
+      </c>
+      <c r="X59" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y59" s="10">
+        <v>236</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>360</v>
+      </c>
+      <c r="C60" s="10">
+        <v>117</v>
+      </c>
+      <c r="D60" t="s">
+        <v>315</v>
+      </c>
+      <c r="E60" s="10">
+        <v>177</v>
+      </c>
+      <c r="F60" t="s">
+        <v>380</v>
+      </c>
+      <c r="G60" s="10">
+        <v>237</v>
+      </c>
+      <c r="H60" t="s">
+        <v>514</v>
+      </c>
+      <c r="J60" s="10">
+        <v>57</v>
+      </c>
+      <c r="K60" t="s">
+        <v>360</v>
+      </c>
+      <c r="L60" s="10">
+        <v>117</v>
+      </c>
+      <c r="M60" t="s">
+        <v>410</v>
+      </c>
+      <c r="N60" s="10">
+        <v>177</v>
+      </c>
+      <c r="O60" t="s">
+        <v>582</v>
+      </c>
+      <c r="P60" s="10">
+        <v>237</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>590</v>
+      </c>
+      <c r="S60" s="10">
+        <v>57</v>
+      </c>
+      <c r="T60" t="s">
+        <v>360</v>
+      </c>
+      <c r="U60" s="10">
+        <v>117</v>
+      </c>
+      <c r="V60" t="s">
+        <v>410</v>
+      </c>
+      <c r="W60" s="10">
+        <v>177</v>
+      </c>
+      <c r="X60" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y60" s="10">
+        <v>237</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
-        <v>78</v>
-      </c>
-      <c r="E19">
-        <v>138</v>
-      </c>
-      <c r="G19">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>79</v>
-      </c>
-      <c r="E20">
-        <v>139</v>
-      </c>
-      <c r="G20">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>80</v>
-      </c>
-      <c r="E21">
-        <v>140</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>81</v>
-      </c>
-      <c r="E22">
-        <v>141</v>
-      </c>
-      <c r="G22">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="C61" s="10">
+        <v>118</v>
+      </c>
+      <c r="D61" t="s">
+        <v>318</v>
+      </c>
+      <c r="E61" s="10">
+        <v>178</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" s="10">
+        <v>238</v>
+      </c>
+      <c r="H61" t="s">
+        <v>515</v>
+      </c>
+      <c r="J61" s="10">
+        <v>58</v>
+      </c>
+      <c r="K61" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="10">
+        <v>118</v>
+      </c>
+      <c r="M61" t="s">
+        <v>409</v>
+      </c>
+      <c r="N61" s="10">
+        <v>178</v>
+      </c>
+      <c r="O61" t="s">
+        <v>37</v>
+      </c>
+      <c r="P61" s="10">
+        <v>238</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>446</v>
+      </c>
+      <c r="S61" s="10">
+        <v>58</v>
+      </c>
+      <c r="T61" t="s">
+        <v>624</v>
+      </c>
+      <c r="U61" s="10">
+        <v>118</v>
+      </c>
+      <c r="V61" t="s">
+        <v>409</v>
+      </c>
+      <c r="W61" s="10">
+        <v>178</v>
+      </c>
+      <c r="X61" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y61" s="10">
+        <v>238</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>549</v>
+      </c>
+      <c r="C62" s="10">
+        <v>119</v>
+      </c>
+      <c r="D62" t="s">
+        <v>326</v>
+      </c>
+      <c r="E62" s="10">
+        <v>179</v>
+      </c>
+      <c r="F62" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="10">
+        <v>239</v>
+      </c>
+      <c r="H62" t="s">
+        <v>516</v>
+      </c>
+      <c r="J62" s="10">
+        <v>59</v>
+      </c>
+      <c r="K62" t="s">
+        <v>549</v>
+      </c>
+      <c r="L62" s="10">
+        <v>119</v>
+      </c>
+      <c r="M62" t="s">
+        <v>513</v>
+      </c>
+      <c r="N62" s="10">
+        <v>179</v>
+      </c>
+      <c r="O62" t="s">
+        <v>40</v>
+      </c>
+      <c r="P62" s="10">
+        <v>239</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>445</v>
+      </c>
+      <c r="S62" s="10">
+        <v>59</v>
+      </c>
+      <c r="T62" t="s">
+        <v>549</v>
+      </c>
+      <c r="U62" s="10">
+        <v>119</v>
+      </c>
+      <c r="V62" t="s">
+        <v>513</v>
+      </c>
+      <c r="W62" s="10">
+        <v>179</v>
+      </c>
+      <c r="X62" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y62" s="10">
+        <v>239</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="10">
+        <v>120</v>
+      </c>
+      <c r="D63" t="s">
+        <v>323</v>
+      </c>
+      <c r="E63" s="10">
+        <v>180</v>
+      </c>
+      <c r="F63" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>82</v>
-      </c>
-      <c r="E23">
-        <v>142</v>
-      </c>
-      <c r="G23">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24">
-        <v>83</v>
-      </c>
-      <c r="E24">
-        <v>143</v>
-      </c>
-      <c r="G24">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>84</v>
-      </c>
-      <c r="E25">
-        <v>144</v>
-      </c>
-      <c r="G25">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>85</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26">
-        <v>145</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26">
-        <v>205</v>
-      </c>
-      <c r="H26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27">
-        <v>86</v>
-      </c>
-      <c r="E27">
-        <v>146</v>
-      </c>
-      <c r="G27">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28">
-        <v>87</v>
-      </c>
-      <c r="E28">
-        <v>147</v>
-      </c>
-      <c r="G28">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>88</v>
-      </c>
-      <c r="E29">
-        <v>148</v>
-      </c>
-      <c r="G29">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>89</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <v>149</v>
-      </c>
-      <c r="G30">
-        <v>209</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>90</v>
-      </c>
-      <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31">
-        <v>150</v>
-      </c>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31">
-        <v>210</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>91</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32">
-        <v>151</v>
-      </c>
-      <c r="G32">
-        <v>211</v>
-      </c>
-      <c r="H32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33">
-        <v>92</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33">
-        <v>152</v>
-      </c>
-      <c r="G33">
-        <v>212</v>
-      </c>
-      <c r="H33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="C34">
-        <v>93</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34">
-        <v>153</v>
-      </c>
-      <c r="G34">
-        <v>213</v>
-      </c>
-      <c r="H34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="C35">
-        <v>94</v>
-      </c>
-      <c r="E35">
-        <v>154</v>
-      </c>
-      <c r="G35">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="C36">
-        <v>95</v>
-      </c>
-      <c r="E36">
-        <v>155</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="C37">
-        <v>96</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>156</v>
-      </c>
-      <c r="G37">
-        <v>216</v>
-      </c>
-      <c r="H37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38">
-        <v>97</v>
-      </c>
-      <c r="E38">
-        <v>157</v>
-      </c>
-      <c r="G38">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <v>98</v>
-      </c>
-      <c r="E39">
-        <v>158</v>
-      </c>
-      <c r="G39">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="C40">
-        <v>99</v>
-      </c>
-      <c r="E40">
-        <v>159</v>
-      </c>
-      <c r="G40">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
-      <c r="E41">
-        <v>160</v>
-      </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <v>101</v>
-      </c>
-      <c r="E42">
-        <v>161</v>
-      </c>
-      <c r="G42">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="G63" s="10">
+        <v>240</v>
+      </c>
+      <c r="H63" t="s">
+        <v>517</v>
+      </c>
+      <c r="J63" s="10">
+        <v>60</v>
+      </c>
+      <c r="K63" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43">
-        <v>102</v>
-      </c>
-      <c r="E43">
-        <v>162</v>
-      </c>
-      <c r="G43">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="C44">
-        <v>103</v>
-      </c>
-      <c r="E44">
-        <v>163</v>
-      </c>
-      <c r="G44">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <v>104</v>
-      </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45">
-        <v>164</v>
-      </c>
-      <c r="G45">
-        <v>224</v>
-      </c>
-      <c r="H45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="C46">
-        <v>105</v>
-      </c>
-      <c r="E46">
-        <v>165</v>
-      </c>
-      <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <v>106</v>
-      </c>
-      <c r="E47">
-        <v>166</v>
-      </c>
-      <c r="G47">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48">
-        <v>107</v>
-      </c>
-      <c r="E48">
-        <v>167</v>
-      </c>
-      <c r="G48">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="C49">
-        <v>108</v>
-      </c>
-      <c r="E49">
-        <v>168</v>
-      </c>
-      <c r="G49">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="C50">
-        <v>109</v>
-      </c>
-      <c r="E50">
-        <v>169</v>
-      </c>
-      <c r="G50">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="C51">
-        <v>110</v>
-      </c>
-      <c r="E51">
-        <v>170</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="C52">
-        <v>111</v>
-      </c>
-      <c r="E52">
-        <v>171</v>
-      </c>
-      <c r="G52">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53">
-        <v>112</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53">
-        <v>172</v>
-      </c>
-      <c r="G53">
-        <v>232</v>
-      </c>
-      <c r="H53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="C54">
-        <v>113</v>
-      </c>
-      <c r="E54">
-        <v>173</v>
-      </c>
-      <c r="G54">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="C55">
-        <v>114</v>
-      </c>
-      <c r="E55">
-        <v>174</v>
-      </c>
-      <c r="G55">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="C56">
-        <v>115</v>
-      </c>
-      <c r="E56">
-        <v>175</v>
-      </c>
-      <c r="G56">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="C57">
-        <v>116</v>
-      </c>
-      <c r="E57">
-        <v>176</v>
-      </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57">
-        <v>236</v>
-      </c>
-      <c r="H57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58">
-        <v>117</v>
-      </c>
-      <c r="E58">
-        <v>177</v>
-      </c>
-      <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59">
-        <v>118</v>
-      </c>
-      <c r="E59">
-        <v>178</v>
-      </c>
-      <c r="F59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G59">
-        <v>238</v>
-      </c>
-      <c r="H59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60">
-        <v>119</v>
-      </c>
-      <c r="E60">
-        <v>179</v>
-      </c>
-      <c r="F60" t="s">
-        <v>40</v>
-      </c>
-      <c r="G60">
-        <v>239</v>
-      </c>
-      <c r="H60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="L63" s="10">
+        <v>120</v>
+      </c>
+      <c r="M63" t="s">
+        <v>408</v>
+      </c>
+      <c r="N63" s="10">
+        <v>180</v>
+      </c>
+      <c r="O63" t="s">
+        <v>22</v>
+      </c>
+      <c r="P63" s="10">
+        <v>240</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>444</v>
+      </c>
+      <c r="S63" s="10">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="T63" t="s">
         <v>42</v>
       </c>
-      <c r="C61">
+      <c r="U63" s="10">
         <v>120</v>
       </c>
-      <c r="E61">
+      <c r="V63" t="s">
+        <v>408</v>
+      </c>
+      <c r="W63" s="10">
         <v>180</v>
       </c>
-      <c r="F61" t="s">
+      <c r="X63" t="s">
         <v>22</v>
       </c>
-      <c r="G61">
+      <c r="Y63" s="10">
         <v>240</v>
       </c>
-      <c r="H61" t="s">
-        <v>33</v>
+      <c r="Z63" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="S1:Z1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3238,8 +7688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F9484A-BBD2-4285-B26E-1D4D0668A870}">
   <dimension ref="A1:BS66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AH65" sqref="AH65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9026,7 +13476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC72FADD-20F6-486C-910D-9322975AA45C}">
   <dimension ref="A3:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
